--- a/default-mappings-xlsx/grabber/Grabber_Mapping_SuiteCRM_DE.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_SuiteCRM_DE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcusKlapprodt\snapADDY GmbH\Sebastian Metzger - Mapping\2_Vorlagen CRM Mapping\Grabber\2019\DE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Grabber\SuiteCRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="224" documentId="13_ncr:1_{F76534A2-0C02-4163-BDD1-92CD5F929769}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8C4F01CA-090A-4688-BA54-2FB04DB0EA51}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579AEA80-D9AE-4E28-A448-36C3D5CDEE62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Checkbox">Tabelle1!$C$6:$D$26</definedName>
-    <definedName name="Field_Type">Tabelle1!$Y$29:$Y$39,Tabelle1!$Y$6:$Y$23,Tabelle1!$Y$26,Tabelle1!$U$6:$U$26,Tabelle1!$U$29:$U$39,Tabelle1!$Q$29:$Q$39,Tabelle1!$Q$6:$Q$26,Tabelle1!$M$6:$M$26,Tabelle1!$M$29:$M$39,Tabelle1!$I$29:$I$39,Tabelle1!$I$6:$I$26</definedName>
+    <definedName name="Checkbox">Tabelle1!$C$7:$D$27</definedName>
+    <definedName name="Field_Type">Tabelle1!$AC$30:$AC$40,Tabelle1!$AC$7:$AC$24,Tabelle1!$AC$27,Tabelle1!$Y$7:$Y$27,Tabelle1!$Y$30:$Y$40,Tabelle1!$Q$30:$Q$40,Tabelle1!$Q$7:$Q$27,Tabelle1!$M$7:$M$27,Tabelle1!$M$30:$M$40,Tabelle1!$I$30:$I$40,Tabelle1!$I$7:$I$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="83">
   <si>
     <t>snapADDY</t>
   </si>
@@ -88,27 +88,12 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Lead Source</t>
-  </si>
-  <si>
     <t>Automatic Fields</t>
   </si>
   <si>
     <t>Field Value</t>
   </si>
   <si>
-    <t>"snapADDY"</t>
-  </si>
-  <si>
-    <t>exportType</t>
-  </si>
-  <si>
-    <t>exportType__c</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>this is a note</t>
   </si>
   <si>
@@ -199,18 +184,12 @@
     <t>phone_office</t>
   </si>
   <si>
-    <t>phone_tax</t>
-  </si>
-  <si>
     <t>industry</t>
   </si>
   <si>
     <t>account_type</t>
   </si>
   <si>
-    <t>lookup</t>
-  </si>
-  <si>
     <t>picklist</t>
   </si>
   <si>
@@ -223,6 +202,39 @@
     <t>nicht benötigt</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF9DA600"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vorlagen-Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFE6C36"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Hier Name der Master-Vorlage eingeben]</t>
+    </r>
+  </si>
+  <si>
     <t>Kampagnen-ID</t>
   </si>
   <si>
@@ -247,9 +259,6 @@
     <t>Nutzername</t>
   </si>
   <si>
-    <t>Export-Art</t>
-  </si>
-  <si>
     <t>Anrede</t>
   </si>
   <si>
@@ -295,17 +304,23 @@
     <t>Typ</t>
   </si>
   <si>
-    <t>Titel</t>
-  </si>
-  <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>SuiteCRM: Prospect</t>
+  </si>
+  <si>
+    <t>Lead Quelle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,9 +337,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="16"/>
       <color rgb="FF9DA600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFE6C36"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -390,6 +419,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="65"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -400,20 +441,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDC6254"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEFB5AF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="63">
+  <borders count="73">
     <border>
       <left/>
       <right/>
@@ -436,21 +465,6 @@
       <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
       <right/>
       <top style="thick">
         <color rgb="FF9DA600"/>
@@ -475,6 +489,51 @@
     </border>
     <border>
       <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
       <right/>
@@ -543,6 +602,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -552,6 +622,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF9DA600"/>
       </left>
@@ -606,6 +687,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,7 +712,44 @@
     </border>
     <border>
       <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
       <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
@@ -780,6 +909,43 @@
       </top>
       <bottom style="thick">
         <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,19 +971,6 @@
       <left style="thick">
         <color rgb="FFFE6C36"/>
       </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
       <right/>
       <top style="thick">
         <color rgb="FFFE6C36"/>
@@ -1018,79 +1171,136 @@
     </border>
     <border>
       <left style="thick">
-        <color rgb="FFDC6254"/>
+        <color theme="4" tint="0.59996337778862885"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </right>
+      <top style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </right>
+      <top style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
       </left>
       <right/>
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color rgb="FFDC6254"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFDC6254"/>
+        <color theme="4" tint="0.59996337778862885"/>
       </left>
       <right/>
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color rgb="FFDC6254"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFDC6254"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFDC6254"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFDC6254"/>
+        <color theme="4" tint="0.59996337778862885"/>
       </left>
       <right/>
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
       <bottom style="thick">
-        <color rgb="FFDC6254"/>
+        <color theme="4" tint="0.59996337778862885"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1101,107 +1311,48 @@
         <color rgb="FF0070C0"/>
       </top>
       <bottom style="thick">
-        <color rgb="FFDC6254"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
+        <color theme="4" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thick">
-        <color rgb="FFDC6254"/>
+        <color theme="4" tint="0.59996337778862885"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
       </right>
       <top style="thick">
-        <color rgb="FFDC6254"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFDC6254"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFDC6254"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFDC6254"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFDC6254"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
+        <color rgb="FF9DA600"/>
       </top>
       <bottom style="thick">
-        <color rgb="FFDC6254"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFDC6254"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FFDC6254"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFDC6254"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FFDC6254"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFDC6254"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFDC6254"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFDC6254"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFDC6254"/>
+        <color rgb="FF9DA600"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1209,181 +1360,419 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightHorizontal">
+          <fgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1540,12 +1929,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFDC6254"/>
-      <color rgb="FFEFB5AF"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1563,13 +1946,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>771525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1641,13 +2024,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2008,13 +2391,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
-  <dimension ref="A1:Y40"/>
+  <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.85546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
@@ -2029,1307 +2412,1616 @@
     <col min="15" max="17" width="15" customWidth="1"/>
     <col min="18" max="18" width="1.7109375" customWidth="1"/>
     <col min="19" max="21" width="15" customWidth="1"/>
-    <col min="22" max="22" width="1.5703125" customWidth="1"/>
-    <col min="23" max="25" width="15" customWidth="1"/>
+    <col min="22" max="22" width="1.7109375" customWidth="1"/>
+    <col min="23" max="25" width="15" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="1.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="29" width="15" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:29" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:29" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="G4" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="O4" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="S4" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="W4" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="90"/>
+      <c r="AA4" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="90"/>
+    </row>
+    <row r="5" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="W6" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="X6" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC6" s="68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="21"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="21"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="21"/>
+      <c r="W7" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="X7" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y7" s="70"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="70"/>
+    </row>
+    <row r="8" spans="1:29" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
+      <c r="G8" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="33" t="s">
         <v>25</v>
       </c>
+      <c r="I8" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="32"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="34"/>
+      <c r="S8" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="T8" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="U8" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="W8" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="X8" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y8" s="70"/>
+      <c r="Z8"/>
+      <c r="AA8" s="69"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="70"/>
     </row>
-    <row r="2" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="2"/>
-      <c r="K2" s="2"/>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="G9" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="32"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="34"/>
+      <c r="S9" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="T9" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="U9" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="W9" s="69"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="70"/>
+      <c r="AA9" s="69"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="70"/>
     </row>
-    <row r="3" spans="1:25" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
+      <c r="G10" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="32"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="34"/>
+      <c r="S10" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="T10" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="U10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="W10" s="69"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="70"/>
+      <c r="AA10" s="69"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="70"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="G11" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="32"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="34"/>
+      <c r="S11" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="T11" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="U11" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="W11" s="69"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="70"/>
+      <c r="AA11" s="69"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="70"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="G12" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="32"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="21"/>
+      <c r="O12" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="S12" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="T12" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="U12" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="W12" s="69"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="70"/>
+      <c r="AA12" s="69"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="70"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="G13" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q13" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="S13" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="T13" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U13" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="W13" s="69"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="70"/>
+      <c r="AA13" s="69"/>
+      <c r="AB13" s="33"/>
+      <c r="AC13" s="70"/>
+    </row>
+    <row r="14" spans="1:29" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="G14" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="S14" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="T14" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="U14" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="W14" s="69"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="70"/>
+      <c r="Z14"/>
+      <c r="AA14" s="69"/>
+      <c r="AB14" s="33"/>
+      <c r="AC14" s="70"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="G15" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="O15" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q15" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="S15" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="T15" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="U15" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="W15" s="69"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="70"/>
+      <c r="AA15" s="69"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="70"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+      <c r="G16" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="O16" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q16" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="S16" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="T16" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="U16" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="W16" s="69"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="70"/>
+      <c r="AA16" s="69"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="70"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="G17" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="O17" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q17" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="S17" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="T17" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="U17" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="W17" s="69"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="70"/>
+      <c r="AA17" s="69"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="70"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
+      <c r="G18" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="L18" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="O18" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="P18" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q18" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="S18" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="T18" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="U18" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="W18" s="69"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="70"/>
+      <c r="AA18" s="69"/>
+      <c r="AB18" s="33"/>
+      <c r="AC18" s="70"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
+      <c r="G19" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="L19" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="O19" s="32"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="34"/>
+      <c r="S19" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="T19" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="U19" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="W19" s="69"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="70"/>
+      <c r="AA19" s="69"/>
+      <c r="AB19" s="33"/>
+      <c r="AC19" s="70"/>
+    </row>
+    <row r="20" spans="1:29" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="G20" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="O20" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="P20" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q20" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="S20" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="T20" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="U20" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="W20" s="69"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="70"/>
+      <c r="AA20" s="69"/>
+      <c r="AB20" s="33"/>
+      <c r="AC20" s="70"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="G21" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="M21" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="P21" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="S21" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="T21" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="U21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="W21" s="69"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="70"/>
+      <c r="AA21" s="69"/>
+      <c r="AB21" s="33"/>
+      <c r="AC21" s="70"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="G22" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="O22" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P22" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q22" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="S22" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="T22" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="U22" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="W22" s="71"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="72"/>
+      <c r="AA22" s="71"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="72"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="G23" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="19"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="21"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="21"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="21"/>
+      <c r="W23" s="71"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="72"/>
+      <c r="AA23" s="71"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="72"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="38"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="47"/>
+      <c r="G24" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="O24" s="19"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="21"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="21"/>
+      <c r="W24" s="71"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="72"/>
+      <c r="AA24" s="71"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="72"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="38"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="47"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="21"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="21"/>
+      <c r="O25" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="P25" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q25" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="S25" s="19"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="21"/>
+      <c r="W25" s="71"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="72"/>
+      <c r="AA25" s="71"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="72"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="38"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="47"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="21"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="21"/>
+      <c r="O26" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="P26" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q26" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="S26" s="19"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="21"/>
+      <c r="W26" s="71"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="72"/>
+      <c r="AA26" s="71"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="72"/>
+    </row>
+    <row r="27" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="48"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="52"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="55"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="55"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="55"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="55"/>
+      <c r="W27" s="73"/>
+      <c r="X27" s="74"/>
+      <c r="Y27" s="75"/>
+      <c r="AA27" s="73"/>
+      <c r="AB27" s="74"/>
+      <c r="AC27" s="75"/>
+    </row>
+    <row r="28" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="56"/>
+      <c r="I28" s="57"/>
+      <c r="K28" s="56"/>
+      <c r="M28" s="57"/>
+      <c r="O28" s="56"/>
+      <c r="Q28" s="57"/>
+      <c r="S28" s="56"/>
+      <c r="U28" s="57"/>
+      <c r="W28" s="56"/>
+      <c r="Y28" s="57"/>
+      <c r="AA28" s="56"/>
+      <c r="AC28" s="57"/>
+    </row>
+    <row r="29" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="P29" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="T29" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U29" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="X29" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y29" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA29" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB29" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC29" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="85"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="64"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="34"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="34"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="34"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="34"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="34"/>
+      <c r="AA30" s="32"/>
+      <c r="AB30" s="33"/>
+      <c r="AC30" s="34"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="79"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="64"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="34"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="34"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="34"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="34"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="34"/>
+      <c r="AA31" s="32"/>
+      <c r="AB31" s="33"/>
+      <c r="AC31" s="34"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="B32" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="G3" s="79" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="O3" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="S3" s="83" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="84"/>
-      <c r="U3" s="85"/>
-      <c r="W3" s="83" t="s">
-        <v>59</v>
-      </c>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="85"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="64"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="34"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="34"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="34"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="34"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="33"/>
+      <c r="Y32" s="34"/>
+      <c r="AA32" s="32"/>
+      <c r="AB32" s="33"/>
+      <c r="AC32" s="34"/>
     </row>
-    <row r="4" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="81" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="81" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="P5" s="81" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="S5" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="T5" s="87" t="s">
-        <v>4</v>
-      </c>
-      <c r="U5" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="W5" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="X5" s="87" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y5" s="88" t="s">
-        <v>5</v>
-      </c>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="79"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="64"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="34"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="34"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="34"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="34"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="34"/>
+      <c r="AA33" s="32"/>
+      <c r="AB33" s="33"/>
+      <c r="AC33" s="34"/>
     </row>
-    <row r="6" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="73"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="73"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="73"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="73"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="73"/>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34" s="65"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="64"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="34"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="34"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="34"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="34"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="34"/>
+      <c r="AA34" s="32"/>
+      <c r="AB34" s="33"/>
+      <c r="AC34" s="34"/>
     </row>
-    <row r="7" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="G7" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="L7" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="O7" s="67"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="74"/>
-      <c r="S7" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="T7" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="U7" s="74"/>
-      <c r="W7" s="67"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="74"/>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A35" s="59"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="60"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="34"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="34"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="34"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="34"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="34"/>
+      <c r="AA35" s="32"/>
+      <c r="AB35" s="33"/>
+      <c r="AC35" s="34"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
-      <c r="G8" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="L8" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" s="68"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="75"/>
-      <c r="S8" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="T8" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="U8" s="75"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="75"/>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36" s="59"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="60"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="34"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="34"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="34"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="34"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="34"/>
+      <c r="AA36" s="32"/>
+      <c r="AB36" s="33"/>
+      <c r="AC36" s="34"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="G9" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="75" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="L9" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="O9" s="68"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="75"/>
-      <c r="S9" s="68"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="75"/>
-      <c r="W9" s="68"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="75"/>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37" s="59"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="60"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="34"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="34"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="34"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="34"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="33"/>
+      <c r="Y37" s="34"/>
+      <c r="AA37" s="32"/>
+      <c r="AB37" s="33"/>
+      <c r="AC37" s="34"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
-      <c r="G10" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="75" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="L10" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="O10" s="68"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="75"/>
-      <c r="S10" s="68"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="75"/>
-      <c r="W10" s="68"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="75"/>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A38" s="59"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="60"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="34"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="34"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="34"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="34"/>
+      <c r="W38" s="32"/>
+      <c r="X38" s="33"/>
+      <c r="Y38" s="34"/>
+      <c r="AA38" s="32"/>
+      <c r="AB38" s="33"/>
+      <c r="AC38" s="34"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="G11" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" s="68"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="73"/>
-      <c r="O11" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q11" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="S11" s="68"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="75"/>
-      <c r="W11" s="68"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="75"/>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39" s="59"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="60"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="34"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="34"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="34"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="33"/>
+      <c r="U39" s="34"/>
+      <c r="W39" s="32"/>
+      <c r="X39" s="33"/>
+      <c r="Y39" s="34"/>
+      <c r="AA39" s="32"/>
+      <c r="AB39" s="33"/>
+      <c r="AC39" s="34"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="G12" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="O12" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="P12" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q12" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="S12" s="68"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="75"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="75"/>
+    <row r="40" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="61"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="62"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="55"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="55"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="55"/>
+      <c r="S40" s="53"/>
+      <c r="T40" s="54"/>
+      <c r="U40" s="55"/>
+      <c r="W40" s="53"/>
+      <c r="X40" s="54"/>
+      <c r="Y40" s="55"/>
+      <c r="AA40" s="53"/>
+      <c r="AB40" s="54"/>
+      <c r="AC40" s="55"/>
     </row>
-    <row r="13" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-      <c r="G13" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="L13" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="O13" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="P13" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q13" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="S13" s="69"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="76"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="76"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="G14" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="O14" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="P14" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q14" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="S14" s="68"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="75"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="75"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="G15" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="L15" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="M15" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="O15" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="P15" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q15" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="S15" s="68"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="75"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="75"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="G16" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="M16" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="O16" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="P16" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q16" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="S16" s="68"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="75"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="75"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27"/>
-      <c r="G17" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="L17" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="M17" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="O17" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="P17" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q17" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="S17" s="68"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="75"/>
-      <c r="W17" s="68"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="75"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
-      <c r="G18" s="68" t="s">
-        <v>82</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="K18" s="68" t="s">
-        <v>82</v>
-      </c>
-      <c r="L18" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="M18" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="O18" s="68"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="75"/>
-      <c r="S18" s="68"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="75"/>
-      <c r="W18" s="68"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="75"/>
-    </row>
-    <row r="19" spans="1:25" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
-      <c r="G19" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="M19" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="O19" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="P19" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q19" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="S19" s="69"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="76"/>
-      <c r="W19" s="69"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="76"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-      <c r="G20" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="L20" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="M20" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="O20" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="P20" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q20" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="S20" s="68"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="75"/>
-      <c r="W20" s="68"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="75"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
-      <c r="G21" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="I21" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="M21" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="O21" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="P21" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q21" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="S21" s="66"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="73"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="73"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-      <c r="G22" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="I22" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" s="66"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="73"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="73"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="73"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="73"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37"/>
-      <c r="G23" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23" s="66"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="73"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="73"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="73"/>
-      <c r="W23" s="66"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="73"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="73"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="73"/>
-      <c r="O24" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="P24" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q24" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="S24" s="66"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="73"/>
-      <c r="W24" s="66"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="73"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="37"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="73"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="73"/>
-      <c r="O25" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="P25" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q25" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="S25" s="66"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="73"/>
-      <c r="W25" s="66"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="73"/>
-    </row>
-    <row r="26" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="38"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="42"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="78"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="78"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="72"/>
-      <c r="Q26" s="78"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="72"/>
-      <c r="U26" s="78"/>
-      <c r="W26" s="71"/>
-      <c r="X26" s="72"/>
-      <c r="Y26" s="78"/>
-    </row>
-    <row r="27" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="43"/>
-      <c r="I27" s="44"/>
-      <c r="K27" s="43"/>
-      <c r="M27" s="44"/>
-      <c r="O27" s="43"/>
-      <c r="Q27" s="44"/>
-      <c r="S27" s="43"/>
-      <c r="U27" s="44"/>
-      <c r="W27" s="43"/>
-      <c r="Y27" s="44"/>
-    </row>
-    <row r="28" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="H28" s="81" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="K28" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="L28" s="81" t="s">
-        <v>4</v>
-      </c>
-      <c r="M28" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="O28" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="P28" s="81" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q28" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="S28" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="T28" s="87" t="s">
-        <v>4</v>
-      </c>
-      <c r="U28" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="W28" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="X28" s="87" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y28" s="88" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="55"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="75"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="75"/>
-      <c r="O29" s="68"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="75"/>
-      <c r="S29" s="68"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="75"/>
-      <c r="W29" s="68"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="75"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="55"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="75"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="75"/>
-      <c r="O30" s="68"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="75"/>
-      <c r="S30" s="68"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="75"/>
-      <c r="W30" s="68"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="75"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="55"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="75"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="75"/>
-      <c r="O31" s="68"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="75"/>
-      <c r="S31" s="68"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="75"/>
-      <c r="W31" s="68"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="75"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="55"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="75"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="75"/>
-      <c r="O32" s="68"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="75"/>
-      <c r="S32" s="68"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="75"/>
-      <c r="W32" s="68"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="75"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="58"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="I33" s="75" t="s">
-        <v>23</v>
-      </c>
-      <c r="K33" s="68"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="75"/>
-      <c r="O33" s="68"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="75"/>
-      <c r="S33" s="68"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="75"/>
-      <c r="W33" s="68"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="75"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="48"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="75"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="75"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="75"/>
-      <c r="S34" s="68"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="75"/>
-      <c r="W34" s="68"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="75"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="48"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="75"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="75"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="75"/>
-      <c r="S35" s="68"/>
-      <c r="T35" s="28"/>
-      <c r="U35" s="75"/>
-      <c r="W35" s="68"/>
-      <c r="X35" s="28"/>
-      <c r="Y35" s="75"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="48"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="75"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="75"/>
-      <c r="O36" s="68"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="75"/>
-      <c r="S36" s="68"/>
-      <c r="T36" s="28"/>
-      <c r="U36" s="75"/>
-      <c r="W36" s="68"/>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="75"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="48"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="75"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="75"/>
-      <c r="O37" s="68"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="75"/>
-      <c r="S37" s="68"/>
-      <c r="T37" s="28"/>
-      <c r="U37" s="75"/>
-      <c r="W37" s="68"/>
-      <c r="X37" s="28"/>
-      <c r="Y37" s="75"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="48"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="75"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="75"/>
-      <c r="O38" s="68"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="75"/>
-      <c r="S38" s="68"/>
-      <c r="T38" s="28"/>
-      <c r="U38" s="75"/>
-      <c r="W38" s="68"/>
-      <c r="X38" s="28"/>
-      <c r="Y38" s="75"/>
-    </row>
-    <row r="39" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="52"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="53"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="78"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="78"/>
-      <c r="O39" s="71"/>
-      <c r="P39" s="72"/>
-      <c r="Q39" s="78"/>
-      <c r="S39" s="71"/>
-      <c r="T39" s="72"/>
-      <c r="U39" s="78"/>
-      <c r="W39" s="71"/>
-      <c r="X39" s="72"/>
-      <c r="Y39" s="78"/>
-    </row>
-    <row r="40" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A6:X26" name="Contact Fields"/>
-    <protectedRange sqref="A29:Y39" name="Questionnaire"/>
+    <protectedRange sqref="W20:AC20 W7:AB19 W21:AB27 A7:V27" name="Contact Fields"/>
+    <protectedRange sqref="A30:AC40" name="Questionnaire"/>
+    <protectedRange sqref="A1" name="Titel"/>
   </protectedRanges>
-  <mergeCells count="15">
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="B36:D36"/>
+  <mergeCells count="17">
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="S4:U4"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B40:D40"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B35:D35"/>
   </mergeCells>
-  <conditionalFormatting sqref="A26:AG27 B7:AG25">
-    <cfRule type="expression" dxfId="13" priority="17">
+  <conditionalFormatting sqref="A27:R28 W8:AK28 B8:R26">
+    <cfRule type="expression" dxfId="35" priority="39">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="40">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA30:AC40">
+    <cfRule type="expression" dxfId="33" priority="37">
+      <formula>$C30="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="38">
+      <formula>$D30="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W30:Y40">
+    <cfRule type="expression" dxfId="31" priority="35">
+      <formula>$C30="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="36">
+      <formula>$D30="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:Q40">
+    <cfRule type="expression" dxfId="29" priority="33">
+      <formula>$C30="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="34">
+      <formula>$D30="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30:M40">
+    <cfRule type="expression" dxfId="27" priority="31">
+      <formula>$C30="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="32">
+      <formula>$D30="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30:I40">
+    <cfRule type="expression" dxfId="25" priority="29">
+      <formula>$C30="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="30">
+      <formula>$D30="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:A26">
+    <cfRule type="expression" dxfId="23" priority="27">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="28">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W7:AC7">
+    <cfRule type="expression" dxfId="21" priority="21">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="18">
+    <cfRule type="expression" dxfId="20" priority="22">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W29:Y39">
-    <cfRule type="expression" dxfId="11" priority="15">
-      <formula>$C29="x"</formula>
+  <conditionalFormatting sqref="S23:V28 V8:V22">
+    <cfRule type="expression" dxfId="19" priority="19">
+      <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="16">
-      <formula>$D29="x"</formula>
+    <cfRule type="expression" dxfId="18" priority="20">
+      <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S29:U39">
-    <cfRule type="expression" dxfId="9" priority="13">
-      <formula>$C29="x"</formula>
+  <conditionalFormatting sqref="S30:U40">
+    <cfRule type="expression" dxfId="17" priority="17">
+      <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="14">
-      <formula>$D29="x"</formula>
+    <cfRule type="expression" dxfId="16" priority="18">
+      <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O29:Q39">
-    <cfRule type="expression" dxfId="7" priority="11">
-      <formula>$C29="x"</formula>
+  <conditionalFormatting sqref="S8:U8">
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12">
-      <formula>$D29="x"</formula>
+    <cfRule type="expression" dxfId="14" priority="16">
+      <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:M39">
-    <cfRule type="expression" dxfId="5" priority="9">
-      <formula>$C29="x"</formula>
+  <conditionalFormatting sqref="S9:U10">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>$C9="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="10">
-      <formula>$D29="x"</formula>
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>$D9="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29:I39">
-    <cfRule type="expression" dxfId="3" priority="7">
-      <formula>$C29="x"</formula>
+  <conditionalFormatting sqref="S22:U22">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>$C22="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="8">
-      <formula>$D29="x"</formula>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>$D22="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:A25">
-    <cfRule type="expression" dxfId="1" priority="5">
-      <formula>$C7="x"</formula>
+  <conditionalFormatting sqref="S11:U11">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>$C11="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6">
-      <formula>$D7="x"</formula>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$D11="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S21:U21">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$C21="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$D21="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S18:U20">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$C18="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$D18="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S13:U17">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$C13="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$D13="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S12:U12">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$C12="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$D12="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D26" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D27" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y29:Y39 Y6:Y26 U6:U26 U29:U39 Q29:Q39 M6:M26 I6:I26 M29:M39 I29:I39 Q6:Q26" xr:uid="{5EC9FB2D-F3B3-4F68-88B9-BC7DBE621DBB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC30:AC40 Q7:Q27 Y30:Y40 Q30:Q40 I7:I27 Y7:Y27 M30:M40 I30:I40 AC7:AC27 M7:M27 U30:U40 U7:U27" xr:uid="{5EC9FB2D-F3B3-4F68-88B9-BC7DBE621DBB}">
       <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
     </dataValidation>
   </dataValidations>

--- a/default-mappings-xlsx/grabber/Grabber_Mapping_SuiteCRM_DE.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_SuiteCRM_DE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Grabber\SuiteCRM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579AEA80-D9AE-4E28-A448-36C3D5CDEE62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAE8C75-14BB-4ED4-B95E-2D7E9025ED95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -34,6 +34,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Valentin Schönrock</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{13206D34-D727-4A87-BFED-BA4F7EA2907C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>"x" eingeben, wenn dieses Feld ausgefüllt sein muss</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{D04173B8-03A5-446E-B833-B8E69BDD63C0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>"x" eingeben, wenn dieses Feld nicht benötigt wird</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="83">
   <si>
@@ -109,9 +147,6 @@
     <t>SuiteCRM: Account</t>
   </si>
   <si>
-    <t>SuiteCRM: Custom Entity (optional)</t>
-  </si>
-  <si>
     <t>salutation</t>
   </si>
   <si>
@@ -191,9 +226,6 @@
   </si>
   <si>
     <t>picklist</t>
-  </si>
-  <si>
-    <t>SuiteCRM: Custom Entity</t>
   </si>
   <si>
     <t>Pflichtfeld</t>
@@ -315,12 +347,18 @@
   <si>
     <t>Lead Quelle</t>
   </si>
+  <si>
+    <t>SuiteCRM: Additional Entity (optional)</t>
+  </si>
+  <si>
+    <t>SuiteCRM: Additional Entity</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,6 +440,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2390,11 +2435,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2420,7 +2465,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2442,10 +2487,10 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E4" s="6"/>
       <c r="G4" s="87" t="s">
@@ -2465,17 +2510,17 @@
       <c r="P4" s="87"/>
       <c r="Q4" s="87"/>
       <c r="S4" s="87" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T4" s="87"/>
       <c r="U4" s="87"/>
       <c r="W4" s="88" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="X4" s="89"/>
       <c r="Y4" s="90"/>
       <c r="AA4" s="88" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="AB4" s="89"/>
       <c r="AC4" s="90"/>
@@ -2577,7 +2622,7 @@
     </row>
     <row r="8" spans="1:29" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>19</v>
@@ -2586,34 +2631,34 @@
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
       <c r="G8" s="32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L8" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M8" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O8" s="32"/>
       <c r="P8" s="33"/>
       <c r="Q8" s="34"/>
       <c r="S8" s="32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="T8" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U8" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W8" s="69" t="s">
         <v>8</v>
@@ -2629,41 +2674,41 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" s="28"/>
       <c r="C9" s="29"/>
       <c r="D9" s="30"/>
       <c r="E9" s="31"/>
       <c r="G9" s="32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K9" s="32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L9" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O9" s="32"/>
       <c r="P9" s="33"/>
       <c r="Q9" s="34"/>
       <c r="S9" s="32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T9" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W9" s="69"/>
       <c r="X9" s="33"/>
@@ -2674,41 +2719,41 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="29"/>
       <c r="D10" s="30"/>
       <c r="E10" s="31"/>
       <c r="G10" s="32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O10" s="32"/>
       <c r="P10" s="33"/>
       <c r="Q10" s="34"/>
       <c r="S10" s="32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="T10" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U10" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W10" s="69"/>
       <c r="X10" s="33"/>
@@ -2719,41 +2764,41 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="29"/>
       <c r="D11" s="30"/>
       <c r="E11" s="31"/>
       <c r="G11" s="32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L11" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O11" s="32"/>
       <c r="P11" s="33"/>
       <c r="Q11" s="34"/>
       <c r="S11" s="32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="T11" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U11" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W11" s="69"/>
       <c r="X11" s="33"/>
@@ -2764,7 +2809,7 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="29"/>
@@ -2774,10 +2819,10 @@
         <v>10</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="33"/>
@@ -2786,19 +2831,19 @@
         <v>11</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q12" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S12" s="32" t="s">
         <v>10</v>
       </c>
       <c r="T12" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U12" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W12" s="69"/>
       <c r="X12" s="33"/>
@@ -2809,47 +2854,47 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="38"/>
       <c r="C13" s="29"/>
       <c r="D13" s="30"/>
       <c r="E13" s="31"/>
       <c r="G13" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S13" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="T13" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U13" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W13" s="69"/>
       <c r="X13" s="33"/>
@@ -2860,47 +2905,47 @@
     </row>
     <row r="14" spans="1:29" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="24"/>
       <c r="D14" s="25"/>
       <c r="E14" s="26"/>
       <c r="G14" s="39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K14" s="39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L14" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P14" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q14" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S14" s="39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T14" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U14" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W14" s="69"/>
       <c r="X14" s="33"/>
@@ -2912,47 +2957,47 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B15" s="43"/>
       <c r="C15" s="29"/>
       <c r="D15" s="30"/>
       <c r="E15" s="31"/>
       <c r="G15" s="35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I15" s="44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K15" s="35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L15" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O15" s="35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P15" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q15" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S15" s="35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="T15" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U15" s="44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W15" s="69"/>
       <c r="X15" s="33"/>
@@ -2963,47 +3008,47 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="29"/>
       <c r="D16" s="30"/>
       <c r="E16" s="31"/>
       <c r="G16" s="32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K16" s="32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L16" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O16" s="32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P16" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q16" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S16" s="32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="T16" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U16" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W16" s="69"/>
       <c r="X16" s="33"/>
@@ -3014,7 +3059,7 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B17" s="28"/>
       <c r="C17" s="29"/>
@@ -3024,37 +3069,37 @@
         <v>12</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K17" s="32" t="s">
         <v>12</v>
       </c>
       <c r="L17" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O17" s="32" t="s">
         <v>12</v>
       </c>
       <c r="P17" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q17" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S17" s="32" t="s">
         <v>12</v>
       </c>
       <c r="T17" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U17" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W17" s="69"/>
       <c r="X17" s="33"/>
@@ -3065,47 +3110,47 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="29"/>
       <c r="D18" s="30"/>
       <c r="E18" s="31"/>
       <c r="G18" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L18" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O18" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q18" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S18" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="T18" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U18" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W18" s="69"/>
       <c r="X18" s="33"/>
@@ -3116,41 +3161,41 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="29"/>
       <c r="D19" s="30"/>
       <c r="E19" s="31"/>
       <c r="G19" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K19" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L19" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O19" s="32"/>
       <c r="P19" s="33"/>
       <c r="Q19" s="34"/>
       <c r="S19" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="T19" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U19" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W19" s="69"/>
       <c r="X19" s="33"/>
@@ -3171,37 +3216,37 @@
         <v>13</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I20" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K20" s="39" t="s">
         <v>13</v>
       </c>
       <c r="L20" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O20" s="39" t="s">
         <v>13</v>
       </c>
       <c r="P20" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q20" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S20" s="39" t="s">
         <v>13</v>
       </c>
       <c r="T20" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U20" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W20" s="69"/>
       <c r="X20" s="33"/>
@@ -3219,40 +3264,40 @@
       <c r="D21" s="30"/>
       <c r="E21" s="31"/>
       <c r="G21" s="32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K21" s="32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L21" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O21" s="32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S21" s="32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="T21" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U21" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W21" s="69"/>
       <c r="X21" s="33"/>
@@ -3273,37 +3318,37 @@
         <v>15</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K22" s="19" t="s">
         <v>15</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O22" s="19" t="s">
         <v>15</v>
       </c>
       <c r="P22" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S22" s="19" t="s">
         <v>15</v>
       </c>
       <c r="T22" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U22" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W22" s="71"/>
       <c r="X22" s="20"/>
@@ -3324,10 +3369,10 @@
         <v>16</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K23" s="19"/>
       <c r="L23" s="20"/>
@@ -3347,29 +3392,29 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B24" s="38"/>
       <c r="C24" s="45"/>
       <c r="D24" s="46"/>
       <c r="E24" s="47"/>
       <c r="G24" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L24" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O24" s="19"/>
       <c r="P24" s="20"/>
@@ -3386,7 +3431,7 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B25" s="38"/>
       <c r="C25" s="45"/>
@@ -3399,13 +3444,13 @@
       <c r="L25" s="20"/>
       <c r="M25" s="21"/>
       <c r="O25" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P25" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q25" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S25" s="19"/>
       <c r="T25" s="20"/>
@@ -3419,7 +3464,7 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B26" s="38"/>
       <c r="C26" s="45"/>
@@ -3432,13 +3477,13 @@
       <c r="L26" s="20"/>
       <c r="M26" s="21"/>
       <c r="O26" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P26" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q26" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S26" s="19"/>
       <c r="T26" s="20"/>
@@ -3558,10 +3603,10 @@
     </row>
     <row r="30" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="63" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B30" s="84" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C30" s="85"/>
       <c r="D30" s="86"/>
@@ -3587,10 +3632,10 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="65" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B31" s="78" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C31" s="79"/>
       <c r="D31" s="80"/>
@@ -3616,10 +3661,10 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="65" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32" s="78" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C32" s="79"/>
       <c r="D32" s="80"/>
@@ -3645,10 +3690,10 @@
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="65" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B33" s="78" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C33" s="79"/>
       <c r="D33" s="80"/>
@@ -4021,12 +4066,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D27" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC30:AC40 Q7:Q27 Y30:Y40 Q30:Q40 I7:I27 Y7:Y27 M30:M40 I30:I40 AC7:AC27 M7:M27 U30:U40 U7:U27" xr:uid="{5EC9FB2D-F3B3-4F68-88B9-BC7DBE621DBB}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I27 M7:M27 Q7:Q27 U7:U27 Y7:Y27 AC7:AC27 AC30:AC40 Y30:Y40 U30:U40 Q30:Q40 M30:M40 I30:I40" xr:uid="{5E5CDF91-6494-4114-9752-6A980D712FC9}">
+      <formula1>"text,picklist,multi-picklist,lookup,date,number,boolean"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/default-mappings-xlsx/grabber/Grabber_Mapping_SuiteCRM_DE.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_SuiteCRM_DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\grabber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAE8C75-14BB-4ED4-B95E-2D7E9025ED95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CFA02F-B1F0-4553-A551-4F5B96B333AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -234,39 +234,6 @@
     <t>nicht benötigt</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF9DA600"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vorlagen-Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFE6C36"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Hier Name der Master-Vorlage eingeben]</t>
-    </r>
-  </si>
-  <si>
     <t>Kampagnen-ID</t>
   </si>
   <si>
@@ -352,13 +319,16 @@
   </si>
   <si>
     <t>SuiteCRM: Additional Entity</t>
+  </si>
+  <si>
+    <t>Grabber Mapping</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,13 +355,6 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF9DA600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFE6C36"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1409,14 +1372,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1432,13 +1395,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -1446,24 +1409,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
@@ -1479,24 +1442,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
@@ -1506,18 +1469,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1532,44 +1495,44 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2439,7 +2402,7 @@
   <dimension ref="A1:AC41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2464,8 +2427,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>53</v>
+      <c r="A1" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2493,37 +2456,37 @@
         <v>52</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="O4" s="87" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="O4" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="S4" s="87" t="s">
-        <v>79</v>
-      </c>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="W4" s="88" t="s">
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="S4" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="T4" s="78"/>
+      <c r="U4" s="78"/>
+      <c r="W4" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="81"/>
+      <c r="AA4" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="90"/>
-      <c r="AA4" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="90"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="81"/>
     </row>
     <row r="5" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2622,7 +2585,7 @@
     </row>
     <row r="8" spans="1:29" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>19</v>
@@ -2631,7 +2594,7 @@
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
       <c r="G8" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" s="33" t="s">
         <v>24</v>
@@ -2640,7 +2603,7 @@
         <v>50</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L8" s="33" t="s">
         <v>24</v>
@@ -2652,7 +2615,7 @@
       <c r="P8" s="33"/>
       <c r="Q8" s="34"/>
       <c r="S8" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T8" s="33" t="s">
         <v>24</v>
@@ -2674,14 +2637,14 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="28"/>
       <c r="C9" s="29"/>
       <c r="D9" s="30"/>
       <c r="E9" s="31"/>
       <c r="G9" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" s="33" t="s">
         <v>25</v>
@@ -2690,7 +2653,7 @@
         <v>40</v>
       </c>
       <c r="K9" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L9" s="33" t="s">
         <v>25</v>
@@ -2702,7 +2665,7 @@
       <c r="P9" s="33"/>
       <c r="Q9" s="34"/>
       <c r="S9" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T9" s="33" t="s">
         <v>25</v>
@@ -2719,14 +2682,14 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="29"/>
       <c r="D10" s="30"/>
       <c r="E10" s="31"/>
       <c r="G10" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" s="33" t="s">
         <v>27</v>
@@ -2735,7 +2698,7 @@
         <v>40</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L10" s="33" t="s">
         <v>27</v>
@@ -2747,7 +2710,7 @@
       <c r="P10" s="33"/>
       <c r="Q10" s="34"/>
       <c r="S10" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T10" s="33" t="s">
         <v>27</v>
@@ -2764,14 +2727,14 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="29"/>
       <c r="D11" s="30"/>
       <c r="E11" s="31"/>
       <c r="G11" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H11" s="33" t="s">
         <v>28</v>
@@ -2780,7 +2743,7 @@
         <v>40</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L11" s="33" t="s">
         <v>28</v>
@@ -2792,7 +2755,7 @@
       <c r="P11" s="33"/>
       <c r="Q11" s="34"/>
       <c r="S11" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T11" s="33" t="s">
         <v>28</v>
@@ -2809,7 +2772,7 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="29"/>
@@ -2854,14 +2817,14 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="38"/>
       <c r="C13" s="29"/>
       <c r="D13" s="30"/>
       <c r="E13" s="31"/>
       <c r="G13" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H13" s="20" t="s">
         <v>30</v>
@@ -2870,7 +2833,7 @@
         <v>40</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L13" s="20" t="s">
         <v>30</v>
@@ -2879,7 +2842,7 @@
         <v>40</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P13" s="20" t="s">
         <v>42</v>
@@ -2888,7 +2851,7 @@
         <v>40</v>
       </c>
       <c r="S13" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T13" s="20" t="s">
         <v>30</v>
@@ -2905,14 +2868,14 @@
     </row>
     <row r="14" spans="1:29" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="24"/>
       <c r="D14" s="25"/>
       <c r="E14" s="26"/>
       <c r="G14" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H14" s="33" t="s">
         <v>32</v>
@@ -2921,7 +2884,7 @@
         <v>40</v>
       </c>
       <c r="K14" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L14" s="33" t="s">
         <v>32</v>
@@ -2930,7 +2893,7 @@
         <v>40</v>
       </c>
       <c r="O14" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P14" s="20" t="s">
         <v>43</v>
@@ -2939,7 +2902,7 @@
         <v>40</v>
       </c>
       <c r="S14" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T14" s="33" t="s">
         <v>32</v>
@@ -2957,14 +2920,14 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" s="43"/>
       <c r="C15" s="29"/>
       <c r="D15" s="30"/>
       <c r="E15" s="31"/>
       <c r="G15" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H15" s="36" t="s">
         <v>30</v>
@@ -2973,7 +2936,7 @@
         <v>40</v>
       </c>
       <c r="K15" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L15" s="36" t="s">
         <v>30</v>
@@ -2982,7 +2945,7 @@
         <v>40</v>
       </c>
       <c r="O15" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P15" s="20" t="s">
         <v>44</v>
@@ -2991,7 +2954,7 @@
         <v>40</v>
       </c>
       <c r="S15" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T15" s="36" t="s">
         <v>30</v>
@@ -3008,14 +2971,14 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="29"/>
       <c r="D16" s="30"/>
       <c r="E16" s="31"/>
       <c r="G16" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H16" s="33" t="s">
         <v>33</v>
@@ -3024,7 +2987,7 @@
         <v>40</v>
       </c>
       <c r="K16" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L16" s="33" t="s">
         <v>33</v>
@@ -3033,7 +2996,7 @@
         <v>40</v>
       </c>
       <c r="O16" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P16" s="20" t="s">
         <v>45</v>
@@ -3042,7 +3005,7 @@
         <v>40</v>
       </c>
       <c r="S16" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T16" s="33" t="s">
         <v>33</v>
@@ -3059,7 +3022,7 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" s="28"/>
       <c r="C17" s="29"/>
@@ -3110,14 +3073,14 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="29"/>
       <c r="D18" s="30"/>
       <c r="E18" s="31"/>
       <c r="G18" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H18" s="33" t="s">
         <v>34</v>
@@ -3126,7 +3089,7 @@
         <v>40</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L18" s="33" t="s">
         <v>34</v>
@@ -3135,7 +3098,7 @@
         <v>40</v>
       </c>
       <c r="O18" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P18" s="33" t="s">
         <v>47</v>
@@ -3144,7 +3107,7 @@
         <v>40</v>
       </c>
       <c r="S18" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T18" s="33" t="s">
         <v>34</v>
@@ -3161,14 +3124,14 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="29"/>
       <c r="D19" s="30"/>
       <c r="E19" s="31"/>
       <c r="G19" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H19" s="33" t="s">
         <v>35</v>
@@ -3177,7 +3140,7 @@
         <v>40</v>
       </c>
       <c r="K19" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L19" s="33" t="s">
         <v>35</v>
@@ -3189,7 +3152,7 @@
       <c r="P19" s="33"/>
       <c r="Q19" s="34"/>
       <c r="S19" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T19" s="33" t="s">
         <v>35</v>
@@ -3264,7 +3227,7 @@
       <c r="D21" s="30"/>
       <c r="E21" s="31"/>
       <c r="G21" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H21" s="33" t="s">
         <v>37</v>
@@ -3273,7 +3236,7 @@
         <v>40</v>
       </c>
       <c r="K21" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L21" s="33" t="s">
         <v>37</v>
@@ -3282,7 +3245,7 @@
         <v>40</v>
       </c>
       <c r="O21" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P21" s="33" t="s">
         <v>37</v>
@@ -3291,7 +3254,7 @@
         <v>40</v>
       </c>
       <c r="S21" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T21" s="33" t="s">
         <v>37</v>
@@ -3392,14 +3355,14 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" s="38"/>
       <c r="C24" s="45"/>
       <c r="D24" s="46"/>
       <c r="E24" s="47"/>
       <c r="G24" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H24" s="20" t="s">
         <v>26</v>
@@ -3408,7 +3371,7 @@
         <v>40</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L24" s="20" t="s">
         <v>26</v>
@@ -3431,7 +3394,7 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" s="38"/>
       <c r="C25" s="45"/>
@@ -3444,7 +3407,7 @@
       <c r="L25" s="20"/>
       <c r="M25" s="21"/>
       <c r="O25" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P25" s="20" t="s">
         <v>48</v>
@@ -3464,7 +3427,7 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" s="38"/>
       <c r="C26" s="45"/>
@@ -3477,7 +3440,7 @@
       <c r="L26" s="20"/>
       <c r="M26" s="21"/>
       <c r="O26" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P26" s="20" t="s">
         <v>49</v>
@@ -3603,13 +3566,13 @@
     </row>
     <row r="30" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="84" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="90"/>
       <c r="E30" s="64"/>
       <c r="G30" s="32"/>
       <c r="H30" s="33"/>
@@ -3632,13 +3595,13 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="80"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="84"/>
       <c r="E31" s="64"/>
       <c r="G31" s="32"/>
       <c r="H31" s="33"/>
@@ -3661,13 +3624,13 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="80"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="84"/>
       <c r="E32" s="64"/>
       <c r="G32" s="32"/>
       <c r="H32" s="33"/>
@@ -3690,13 +3653,13 @@
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="80"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="84"/>
       <c r="E33" s="64"/>
       <c r="G33" s="32"/>
       <c r="H33" s="33"/>
@@ -3719,9 +3682,9 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="65"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="80"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="84"/>
       <c r="E34" s="64"/>
       <c r="G34" s="32"/>
       <c r="H34" s="33"/>
@@ -3744,9 +3707,9 @@
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="59"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="80"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="84"/>
       <c r="E35" s="60"/>
       <c r="G35" s="32"/>
       <c r="H35" s="33"/>
@@ -3769,9 +3732,9 @@
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="59"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="80"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="84"/>
       <c r="E36" s="60"/>
       <c r="G36" s="32"/>
       <c r="H36" s="33"/>
@@ -3794,9 +3757,9 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="59"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="80"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="84"/>
       <c r="E37" s="60"/>
       <c r="G37" s="32"/>
       <c r="H37" s="33"/>
@@ -3819,9 +3782,9 @@
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="59"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="80"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="84"/>
       <c r="E38" s="60"/>
       <c r="G38" s="32"/>
       <c r="H38" s="33"/>
@@ -3844,9 +3807,9 @@
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="59"/>
-      <c r="B39" s="78"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="80"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="84"/>
       <c r="E39" s="60"/>
       <c r="G39" s="32"/>
       <c r="H39" s="33"/>
@@ -3869,9 +3832,9 @@
     </row>
     <row r="40" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="61"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="83"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="87"/>
       <c r="E40" s="62"/>
       <c r="G40" s="53"/>
       <c r="H40" s="54"/>
@@ -3900,12 +3863,6 @@
     <protectedRange sqref="A1" name="Titel"/>
   </protectedRanges>
   <mergeCells count="17">
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="S4:U4"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>
@@ -3917,6 +3874,12 @@
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B35:D35"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="S4:U4"/>
   </mergeCells>
   <conditionalFormatting sqref="A27:R28 W8:AK28 B8:R26">
     <cfRule type="expression" dxfId="35" priority="39">

--- a/default-mappings-xlsx/grabber/Grabber_Mapping_SuiteCRM_DE.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_SuiteCRM_DE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Grabber\SuiteCRM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579AEA80-D9AE-4E28-A448-36C3D5CDEE62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA2D31A-FC36-453E-A3BE-31D6339344EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Checkbox">Tabelle1!$C$7:$D$27</definedName>
-    <definedName name="Field_Type">Tabelle1!$AC$30:$AC$40,Tabelle1!$AC$7:$AC$24,Tabelle1!$AC$27,Tabelle1!$Y$7:$Y$27,Tabelle1!$Y$30:$Y$40,Tabelle1!$Q$30:$Q$40,Tabelle1!$Q$7:$Q$27,Tabelle1!$M$7:$M$27,Tabelle1!$M$30:$M$40,Tabelle1!$I$30:$I$40,Tabelle1!$I$7:$I$27</definedName>
+    <definedName name="Checkbox">Tabelle1!$C$6:$D$26</definedName>
+    <definedName name="Field_Type">Tabelle1!$AC$29:$AC$39,Tabelle1!$AC$6:$AC$23,Tabelle1!$AC$26,Tabelle1!$Y$6:$Y$26,Tabelle1!$Y$29:$Y$39,Tabelle1!$Q$29:$Q$39,Tabelle1!$Q$6:$Q$26,Tabelle1!$M$6:$M$26,Tabelle1!$M$29:$M$39,Tabelle1!$I$29:$I$39,Tabelle1!$I$6:$I$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="82">
   <si>
     <t>snapADDY</t>
   </si>
@@ -200,39 +200,6 @@
   </si>
   <si>
     <t>nicht benötigt</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF9DA600"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vorlagen-Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFE6C36"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Hier Name der Master-Vorlage eingeben]</t>
-    </r>
   </si>
   <si>
     <t>Kampagnen-ID</t>
@@ -320,7 +287,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,23 +304,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color rgb="FF9DA600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFE6C36"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -419,18 +372,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="65"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -441,8 +382,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEB6758"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6BAB4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="73">
+  <borders count="76">
     <border>
       <left/>
       <right/>
@@ -489,51 +442,6 @@
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
       <right/>
@@ -599,17 +507,6 @@
       <bottom style="thin">
         <color rgb="FF9DA600"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -622,34 +519,38 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
       </right>
       <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF9DA600"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
+      <right style="thick">
         <color rgb="FF9DA600"/>
       </right>
       <top style="thin">
@@ -661,7 +562,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
       <right style="thick">
@@ -672,32 +573,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,19 +587,6 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF0070C0"/>
-      </left>
       <right/>
       <top style="thin">
         <color rgb="FF0070C0"/>
@@ -735,30 +597,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
@@ -909,43 +747,6 @@
       </top>
       <bottom style="thick">
         <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1171,48 +972,41 @@
     </border>
     <border>
       <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </top>
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </top>
-      <bottom style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
       <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FF9DA600"/>
       </right>
       <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FF9DA600"/>
       </top>
       <bottom style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FF9DA600"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </left>
-      <right/>
+        <color rgb="FFEB6758"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
       <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FFEB6758"/>
       </top>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
@@ -1220,10 +1014,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
       <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FFEB6758"/>
       </top>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
@@ -1231,12 +1029,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
       <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FFEB6758"/>
       </right>
       <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FFEB6758"/>
       </top>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
@@ -1245,62 +1045,84 @@
     </border>
     <border>
       <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FFEB6758"/>
       </left>
       <right/>
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FFEB6758"/>
       </right>
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FFEB6758"/>
       </left>
       <right/>
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FFEB6758"/>
       </right>
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FFEB6758"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFEB6758"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFEB6758"/>
       </left>
       <right/>
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
       <bottom style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FFEB6758"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1311,48 +1133,224 @@
         <color rgb="FF0070C0"/>
       </top>
       <bottom style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FFEB6758"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FFEB6758"/>
       </right>
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
       <bottom style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FFEB6758"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
+        <color rgb="FFF6BAB4"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFF6BAB4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFF6BAB4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
+        <color rgb="FFF6BAB4"/>
       </right>
       <top style="thick">
-        <color rgb="FF9DA600"/>
+        <color rgb="FFF6BAB4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF6BAB4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFF6BAB4"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF6BAB4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFF6BAB4"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF6BAB4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
       </top>
       <bottom style="thick">
-        <color rgb="FF9DA600"/>
+        <color rgb="FFF6BAB4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFF6BAB4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFF6BAB4"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFF6BAB4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF6BAB4"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFF6BAB4"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFF6BAB4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFF6BAB4"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFF6BAB4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFF6BAB4"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFF6BAB4"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFF6BAB4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF6BAB4"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFF6BAB4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFF6BAB4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFF6BAB4"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFF6BAB4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1360,18 +1358,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1382,150 +1379,154 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1929,6 +1930,13 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF6BAB4"/>
+      <color rgb="FFEB6557"/>
+      <color rgb="FFEB6758"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1946,13 +1954,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>771525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2024,13 +2032,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2391,10 +2399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
-  <dimension ref="A1:AC41"/>
+  <dimension ref="A1:AC40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2418,1611 +2426,1602 @@
     <col min="27" max="29" width="15" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
+    <row r="2" spans="1:29" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:29" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="3"/>
-      <c r="K3" s="3"/>
+    <row r="3" spans="1:29" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="G3" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="O3" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="S3" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="W3" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="90"/>
+      <c r="AA3" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="90"/>
     </row>
-    <row r="4" spans="1:29" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="G4" s="87" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="87" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="O4" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="S4" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="W4" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="90"/>
-      <c r="AA4" s="88" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="90"/>
+    <row r="4" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="63"/>
+      <c r="K5" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="W5" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="X5" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA5" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB5" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="80" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="T6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="U6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W6" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="X6" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y6" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA6" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB6" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC6" s="68" t="s">
-        <v>5</v>
-      </c>
+    <row r="6" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="68"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="68"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="68"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="68"/>
+      <c r="W6" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="X6" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y6" s="82"/>
+      <c r="AA6" s="81"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="82"/>
     </row>
-    <row r="7" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="21"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="21"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="21"/>
-      <c r="W7" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="X7" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y7" s="70"/>
-      <c r="AA7" s="69"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="70"/>
+    <row r="7" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="G7" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="69"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="70"/>
+      <c r="S7" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="T7" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="U7" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="W7" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="X7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y7" s="82"/>
+      <c r="Z7"/>
+      <c r="AA7" s="81"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="82"/>
     </row>
-    <row r="8" spans="1:29" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-      <c r="G8" s="32" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="G8" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="32" t="s">
+      <c r="H8" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="L8" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="O8" s="32"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="34"/>
-      <c r="S8" s="32" t="s">
+      <c r="L8" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="69"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="70"/>
+      <c r="S8" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="T8" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="U8" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="W8" s="69" t="s">
-        <v>8</v>
-      </c>
-      <c r="X8" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y8" s="70"/>
-      <c r="Z8"/>
-      <c r="AA8" s="69"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="70"/>
+      <c r="T8" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="U8" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="W8" s="81"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="82"/>
+      <c r="AA8" s="81"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="82"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="G9" s="32" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="G9" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="32" t="s">
+      <c r="H9" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="L9" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" s="32"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="34"/>
-      <c r="S9" s="32" t="s">
+      <c r="L9" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="69"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="70"/>
+      <c r="S9" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="T9" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="U9" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="W9" s="69"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="70"/>
-      <c r="AA9" s="69"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="70"/>
+      <c r="T9" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="U9" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="W9" s="81"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="82"/>
+      <c r="AA9" s="81"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="82"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-      <c r="G10" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="L10" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10" s="32"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="34"/>
-      <c r="S10" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="T10" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="U10" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="W10" s="69"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="70"/>
-      <c r="AA10" s="69"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="70"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
+      <c r="G10" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="69"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="70"/>
+      <c r="S10" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="T10" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="W10" s="81"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="82"/>
+      <c r="AA10" s="81"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="82"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
-      <c r="G11" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="L11" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="O11" s="32"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="34"/>
-      <c r="S11" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="T11" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="U11" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="W11" s="69"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="70"/>
-      <c r="AA11" s="69"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="70"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="G11" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="69"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="68"/>
+      <c r="O11" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="S11" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="T11" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="U11" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="W11" s="81"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="82"/>
+      <c r="AA11" s="81"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="82"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="G12" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="32"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="21"/>
-      <c r="O12" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q12" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="S12" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="T12" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="U12" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="W12" s="69"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="70"/>
-      <c r="AA12" s="69"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="70"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="G12" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q12" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="S12" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="T12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="U12" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="W12" s="81"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="82"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="82"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+    <row r="13" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-      <c r="G13" s="19" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="G13" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q13" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="S13" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="T13" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="U13" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="W13" s="81"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="82"/>
+      <c r="Z13"/>
+      <c r="AA13" s="81"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="82"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="G14" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="L13" s="20" t="s">
+      <c r="I14" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="M13" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="O13" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="P13" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q13" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="S13" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="T13" s="20" t="s">
+      <c r="M14" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q14" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="S14" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="T14" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="U13" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="W13" s="69"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="70"/>
-      <c r="AA13" s="69"/>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="70"/>
-    </row>
-    <row r="14" spans="1:29" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="G14" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="L14" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="M14" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="O14" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="P14" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q14" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="S14" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="T14" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="U14" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="W14" s="69"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="70"/>
-      <c r="Z14"/>
-      <c r="AA14" s="69"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="70"/>
+      <c r="U14" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="W14" s="81"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="82"/>
+      <c r="AA14" s="81"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="82"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-      <c r="G15" s="35" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="G15" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" s="35" t="s">
+      <c r="H15" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="L15" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="O15" s="35" t="s">
+      <c r="L15" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="O15" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="P15" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q15" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="S15" s="35" t="s">
+      <c r="P15" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q15" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="S15" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="T15" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="U15" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="W15" s="69"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="70"/>
-      <c r="AA15" s="69"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="70"/>
+      <c r="T15" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="U15" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="W15" s="81"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="82"/>
+      <c r="AA15" s="81"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="82"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
-      <c r="G16" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="L16" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="M16" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="O16" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="P16" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q16" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="S16" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="T16" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="U16" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="W16" s="69"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="70"/>
-      <c r="AA16" s="69"/>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="70"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
+      <c r="G16" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="O16" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q16" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="S16" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="T16" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="U16" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="W16" s="81"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="82"/>
+      <c r="AA16" s="81"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="82"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
-      <c r="G17" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="M17" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="O17" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q17" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="S17" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="T17" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="U17" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="W17" s="69"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="70"/>
-      <c r="AA17" s="69"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="70"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="G17" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="L17" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="O17" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q17" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="S17" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="T17" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="U17" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="W17" s="81"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="82"/>
+      <c r="AA17" s="81"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="82"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-      <c r="G18" s="32" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="G18" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="H18" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18" s="32" t="s">
+      <c r="H18" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="L18" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="M18" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="O18" s="32" t="s">
+      <c r="L18" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="O18" s="69"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="70"/>
+      <c r="S18" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="P18" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q18" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="S18" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="T18" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="U18" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="W18" s="69"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="70"/>
-      <c r="AA18" s="69"/>
-      <c r="AB18" s="33"/>
-      <c r="AC18" s="70"/>
+      <c r="T18" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="U18" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="W18" s="81"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="82"/>
+      <c r="AA18" s="81"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="82"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
-      <c r="G19" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="L19" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="O19" s="32"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="34"/>
-      <c r="S19" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="T19" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="U19" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="W19" s="69"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="70"/>
-      <c r="AA19" s="69"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="70"/>
+    <row r="19" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+      <c r="G19" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="M19" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="O19" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q19" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="S19" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="T19" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="U19" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="W19" s="81"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="82"/>
+      <c r="AA19" s="81"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="82"/>
     </row>
-    <row r="20" spans="1:29" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="G20" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="L20" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="M20" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="O20" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="P20" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q20" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="S20" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="T20" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="U20" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="W20" s="69"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="70"/>
-      <c r="AA20" s="69"/>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="70"/>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="G20" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="L20" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="M20" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="O20" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="P20" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q20" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="S20" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="T20" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="U20" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="W20" s="81"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="82"/>
+      <c r="AA20" s="81"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="82"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="G21" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="L21" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="M21" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="O21" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="P21" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q21" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="S21" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="T21" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="U21" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="W21" s="69"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="70"/>
-      <c r="AA21" s="69"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="70"/>
+      <c r="A21" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="G21" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q21" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="S21" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="T21" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="U21" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="W21" s="83"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="84"/>
+      <c r="AA21" s="83"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="84"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-      <c r="G22" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="L22" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="O22" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="P22" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q22" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="S22" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="T22" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="U22" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="W22" s="71"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="72"/>
-      <c r="AA22" s="71"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="72"/>
+      <c r="A22" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
+      <c r="G22" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="67"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="68"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="68"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="68"/>
+      <c r="W22" s="83"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="84"/>
+      <c r="AA22" s="83"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="84"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="G23" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="K23" s="19"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="21"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="21"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="21"/>
-      <c r="W23" s="71"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="72"/>
-      <c r="AA23" s="71"/>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="72"/>
+      <c r="A23" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
+      <c r="G23" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="O23" s="67"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="68"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="68"/>
+      <c r="W23" s="83"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="84"/>
+      <c r="AA23" s="83"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="84"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="47"/>
-      <c r="G24" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="L24" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M24" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="O24" s="19"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="21"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="21"/>
-      <c r="W24" s="71"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="72"/>
-      <c r="AA24" s="71"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="72"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="68"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="68"/>
+      <c r="O24" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q24" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="S24" s="67"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="68"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="84"/>
+      <c r="AA24" s="83"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="84"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="47"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="21"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="21"/>
-      <c r="O25" s="19" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="68"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="68"/>
+      <c r="O25" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="P25" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q25" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="S25" s="19"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="21"/>
-      <c r="W25" s="71"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="72"/>
-      <c r="AA25" s="71"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="72"/>
+      <c r="P25" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q25" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="S25" s="67"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="68"/>
+      <c r="W25" s="83"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="84"/>
+      <c r="AA25" s="83"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="84"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="47"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="21"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="21"/>
-      <c r="O26" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="P26" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q26" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="S26" s="19"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="21"/>
-      <c r="W26" s="71"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="72"/>
-      <c r="AA26" s="71"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="72"/>
+    <row r="26" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="36"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="40"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="77"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="77"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="77"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="76"/>
+      <c r="U26" s="77"/>
+      <c r="W26" s="85"/>
+      <c r="X26" s="86"/>
+      <c r="Y26" s="87"/>
+      <c r="AA26" s="85"/>
+      <c r="AB26" s="86"/>
+      <c r="AC26" s="87"/>
     </row>
-    <row r="27" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="48"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="55"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="55"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="55"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="55"/>
-      <c r="W27" s="73"/>
-      <c r="X27" s="74"/>
-      <c r="Y27" s="75"/>
-      <c r="AA27" s="73"/>
-      <c r="AB27" s="74"/>
-      <c r="AC27" s="75"/>
+    <row r="27" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="41"/>
+      <c r="I27" s="42"/>
+      <c r="K27" s="41"/>
+      <c r="M27" s="42"/>
+      <c r="O27" s="41"/>
+      <c r="Q27" s="42"/>
+      <c r="S27" s="41"/>
+      <c r="U27" s="42"/>
+      <c r="W27" s="41"/>
+      <c r="Y27" s="42"/>
+      <c r="AA27" s="41"/>
+      <c r="AC27" s="42"/>
     </row>
-    <row r="28" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G28" s="56"/>
-      <c r="I28" s="57"/>
-      <c r="K28" s="56"/>
-      <c r="M28" s="57"/>
-      <c r="O28" s="56"/>
-      <c r="Q28" s="57"/>
-      <c r="S28" s="56"/>
-      <c r="U28" s="57"/>
-      <c r="W28" s="56"/>
-      <c r="Y28" s="57"/>
-      <c r="AA28" s="56"/>
-      <c r="AC28" s="57"/>
+    <row r="28" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="K28" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="L28" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="M28" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="O28" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="P28" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="S28" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="T28" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="U28" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="W28" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="X28" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y28" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA28" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB28" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC28" s="93" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="29" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="M29" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="P29" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q29" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="S29" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="T29" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="U29" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W29" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="X29" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y29" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA29" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB29" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC29" s="13" t="s">
-        <v>5</v>
-      </c>
+    <row r="29" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="60"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="49"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="70"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="70"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="70"/>
+      <c r="S29" s="69"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="70"/>
+      <c r="W29" s="81"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="82"/>
+      <c r="AA29" s="81"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="82"/>
     </row>
-    <row r="30" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="84" t="s">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="64"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="34"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="34"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="34"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="34"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="34"/>
-      <c r="AA30" s="32"/>
-      <c r="AB30" s="33"/>
-      <c r="AC30" s="34"/>
+      <c r="B30" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="54"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="49"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="70"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="70"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="70"/>
+      <c r="S30" s="69"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="70"/>
+      <c r="W30" s="81"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="82"/>
+      <c r="AA30" s="81"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="82"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="78" t="s">
+      <c r="A31" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="64"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="34"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="34"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="34"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="34"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="34"/>
-      <c r="AA31" s="32"/>
-      <c r="AB31" s="33"/>
-      <c r="AC31" s="34"/>
+      <c r="B31" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="54"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="49"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="70"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="70"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="70"/>
+      <c r="S31" s="69"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="70"/>
+      <c r="W31" s="81"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="82"/>
+      <c r="AA31" s="81"/>
+      <c r="AB31" s="26"/>
+      <c r="AC31" s="82"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="78" t="s">
+      <c r="A32" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="64"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="34"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="34"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="34"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="34"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="34"/>
-      <c r="AA32" s="32"/>
-      <c r="AB32" s="33"/>
-      <c r="AC32" s="34"/>
+      <c r="B32" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="54"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="49"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="70"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="70"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="70"/>
+      <c r="S32" s="69"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="70"/>
+      <c r="W32" s="81"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="82"/>
+      <c r="AA32" s="81"/>
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="82"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="64"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="34"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="34"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="34"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="34"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="34"/>
-      <c r="AA33" s="32"/>
-      <c r="AB33" s="33"/>
-      <c r="AC33" s="34"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="49"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="70"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="70"/>
+      <c r="O33" s="69"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="70"/>
+      <c r="S33" s="69"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="70"/>
+      <c r="W33" s="81"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="82"/>
+      <c r="AA33" s="81"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="82"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="64"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="34"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="34"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="34"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="33"/>
-      <c r="U34" s="34"/>
-      <c r="W34" s="32"/>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="34"/>
-      <c r="AA34" s="32"/>
-      <c r="AB34" s="33"/>
-      <c r="AC34" s="34"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="45"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="70"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="70"/>
+      <c r="O34" s="69"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="70"/>
+      <c r="S34" s="69"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="70"/>
+      <c r="W34" s="81"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="82"/>
+      <c r="AA34" s="81"/>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="82"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" s="59"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="60"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="34"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="34"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="34"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="34"/>
-      <c r="W35" s="32"/>
-      <c r="X35" s="33"/>
-      <c r="Y35" s="34"/>
-      <c r="AA35" s="32"/>
-      <c r="AB35" s="33"/>
-      <c r="AC35" s="34"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="45"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="70"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="70"/>
+      <c r="O35" s="69"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="70"/>
+      <c r="S35" s="69"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="70"/>
+      <c r="W35" s="81"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="82"/>
+      <c r="AA35" s="81"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="82"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="60"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="34"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="34"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="34"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="34"/>
-      <c r="W36" s="32"/>
-      <c r="X36" s="33"/>
-      <c r="Y36" s="34"/>
-      <c r="AA36" s="32"/>
-      <c r="AB36" s="33"/>
-      <c r="AC36" s="34"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="45"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="70"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="70"/>
+      <c r="O36" s="69"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="70"/>
+      <c r="S36" s="69"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="70"/>
+      <c r="W36" s="81"/>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="82"/>
+      <c r="AA36" s="81"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="82"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="60"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="34"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="34"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="34"/>
-      <c r="S37" s="32"/>
-      <c r="T37" s="33"/>
-      <c r="U37" s="34"/>
-      <c r="W37" s="32"/>
-      <c r="X37" s="33"/>
-      <c r="Y37" s="34"/>
-      <c r="AA37" s="32"/>
-      <c r="AB37" s="33"/>
-      <c r="AC37" s="34"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="45"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="70"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="70"/>
+      <c r="O37" s="69"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="70"/>
+      <c r="S37" s="69"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="70"/>
+      <c r="W37" s="81"/>
+      <c r="X37" s="26"/>
+      <c r="Y37" s="82"/>
+      <c r="AA37" s="81"/>
+      <c r="AB37" s="26"/>
+      <c r="AC37" s="82"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="59"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="60"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="34"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="34"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="34"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="33"/>
-      <c r="U38" s="34"/>
-      <c r="W38" s="32"/>
-      <c r="X38" s="33"/>
-      <c r="Y38" s="34"/>
-      <c r="AA38" s="32"/>
-      <c r="AB38" s="33"/>
-      <c r="AC38" s="34"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="45"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="70"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="70"/>
+      <c r="O38" s="69"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="70"/>
+      <c r="S38" s="69"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="70"/>
+      <c r="W38" s="81"/>
+      <c r="X38" s="26"/>
+      <c r="Y38" s="82"/>
+      <c r="AA38" s="81"/>
+      <c r="AB38" s="26"/>
+      <c r="AC38" s="82"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" s="59"/>
-      <c r="B39" s="78"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="60"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="34"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="34"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="34"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="33"/>
-      <c r="U39" s="34"/>
-      <c r="W39" s="32"/>
-      <c r="X39" s="33"/>
-      <c r="Y39" s="34"/>
-      <c r="AA39" s="32"/>
-      <c r="AB39" s="33"/>
-      <c r="AC39" s="34"/>
+    <row r="39" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="46"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="47"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="77"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="77"/>
+      <c r="O39" s="75"/>
+      <c r="P39" s="76"/>
+      <c r="Q39" s="77"/>
+      <c r="S39" s="75"/>
+      <c r="T39" s="76"/>
+      <c r="U39" s="77"/>
+      <c r="W39" s="85"/>
+      <c r="X39" s="86"/>
+      <c r="Y39" s="87"/>
+      <c r="AA39" s="85"/>
+      <c r="AB39" s="86"/>
+      <c r="AC39" s="87"/>
     </row>
-    <row r="40" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="61"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="62"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="55"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="55"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="55"/>
-      <c r="S40" s="53"/>
-      <c r="T40" s="54"/>
-      <c r="U40" s="55"/>
-      <c r="W40" s="53"/>
-      <c r="X40" s="54"/>
-      <c r="Y40" s="55"/>
-      <c r="AA40" s="53"/>
-      <c r="AB40" s="54"/>
-      <c r="AC40" s="55"/>
-    </row>
-    <row r="41" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="W20:AC20 W7:AB19 W21:AB27 A7:V27" name="Contact Fields"/>
-    <protectedRange sqref="A30:AC40" name="Questionnaire"/>
-    <protectedRange sqref="A1" name="Titel"/>
+    <protectedRange sqref="W19:AC19 W6:AB18 W20:AB26 A6:V26" name="Contact Fields"/>
+    <protectedRange sqref="A29:AC39" name="Questionnaire"/>
   </protectedRanges>
   <mergeCells count="17">
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B35:D35"/>
     <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="S3:U3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A27:R28 W8:AK28 B8:R26">
+  <conditionalFormatting sqref="A26:R27 W7:AK27 B7:R25">
     <cfRule type="expression" dxfId="35" priority="39">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="40">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA29:AC39">
+    <cfRule type="expression" dxfId="33" priority="37">
+      <formula>$C29="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="38">
+      <formula>$D29="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W29:Y39">
+    <cfRule type="expression" dxfId="31" priority="35">
+      <formula>$C29="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="36">
+      <formula>$D29="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O29:Q39">
+    <cfRule type="expression" dxfId="29" priority="33">
+      <formula>$C29="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="34">
+      <formula>$D29="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29:M39">
+    <cfRule type="expression" dxfId="27" priority="31">
+      <formula>$C29="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="32">
+      <formula>$D29="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29:I39">
+    <cfRule type="expression" dxfId="25" priority="29">
+      <formula>$C29="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="30">
+      <formula>$D29="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:A25">
+    <cfRule type="expression" dxfId="23" priority="27">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="28">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W6:AC6">
+    <cfRule type="expression" dxfId="21" priority="21">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="22">
+      <formula>$D6="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S22:V27 V7:V21">
+    <cfRule type="expression" dxfId="19" priority="19">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="20">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S29:U39">
+    <cfRule type="expression" dxfId="17" priority="17">
+      <formula>$C29="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="18">
+      <formula>$D29="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S7:U7">
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="16">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S8:U9">
+    <cfRule type="expression" dxfId="13" priority="13">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="40">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA30:AC40">
-    <cfRule type="expression" dxfId="33" priority="37">
-      <formula>$C30="x"</formula>
+  <conditionalFormatting sqref="S21:U21">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>$C21="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="38">
-      <formula>$D30="x"</formula>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>$D21="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W30:Y40">
-    <cfRule type="expression" dxfId="31" priority="35">
-      <formula>$C30="x"</formula>
+  <conditionalFormatting sqref="S10:U10">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>$C10="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="36">
-      <formula>$D30="x"</formula>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$D10="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O30:Q40">
-    <cfRule type="expression" dxfId="29" priority="33">
-      <formula>$C30="x"</formula>
+  <conditionalFormatting sqref="S20:U20">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$C20="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="34">
-      <formula>$D30="x"</formula>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$D20="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:M40">
-    <cfRule type="expression" dxfId="27" priority="31">
-      <formula>$C30="x"</formula>
+  <conditionalFormatting sqref="S17:U19">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$C17="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="32">
-      <formula>$D30="x"</formula>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$D17="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30:I40">
-    <cfRule type="expression" dxfId="25" priority="29">
-      <formula>$C30="x"</formula>
+  <conditionalFormatting sqref="S12:U16">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$C12="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="30">
-      <formula>$D30="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A26">
-    <cfRule type="expression" dxfId="23" priority="27">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="28">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W7:AC7">
-    <cfRule type="expression" dxfId="21" priority="21">
-      <formula>$C7="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22">
-      <formula>$D7="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S23:V28 V8:V22">
-    <cfRule type="expression" dxfId="19" priority="19">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S30:U40">
-    <cfRule type="expression" dxfId="17" priority="17">
-      <formula>$C30="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
-      <formula>$D30="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S8:U8">
-    <cfRule type="expression" dxfId="15" priority="15">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S9:U10">
-    <cfRule type="expression" dxfId="13" priority="13">
-      <formula>$C9="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
-      <formula>$D9="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S22:U22">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>$C22="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>$D22="x"</formula>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$D12="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11:U11">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$C11="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$D11="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S21:U21">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$C21="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$D21="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S18:U20">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$C18="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$D18="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S13:U17">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$C13="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$D13="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S12:U12">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C12="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$D12="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D27" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D26" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC30:AC40 Q7:Q27 Y30:Y40 Q30:Q40 I7:I27 Y7:Y27 M30:M40 I30:I40 AC7:AC27 M7:M27 U30:U40 U7:U27" xr:uid="{5EC9FB2D-F3B3-4F68-88B9-BC7DBE621DBB}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC6:AC26 AC29:AC39 Y29:Y39 Y6:Y26 U6:U26 U29:U39 Q29:Q39 Q6:Q26 M6:M26 M29:M39 I29:I39 I6:I26" xr:uid="{875B8462-1178-4F45-9F17-2CD3ACFAE181}">
+      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/default-mappings-xlsx/grabber/Grabber_Mapping_SuiteCRM_DE.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_SuiteCRM_DE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA2D31A-FC36-453E-A3BE-31D6339344EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3D8CAF-3CB8-415B-B86E-606CABCF540F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="Checkbox">Tabelle1!$C$6:$D$26</definedName>
-    <definedName name="Field_Type">Tabelle1!$AC$29:$AC$39,Tabelle1!$AC$6:$AC$23,Tabelle1!$AC$26,Tabelle1!$Y$6:$Y$26,Tabelle1!$Y$29:$Y$39,Tabelle1!$Q$29:$Q$39,Tabelle1!$Q$6:$Q$26,Tabelle1!$M$6:$M$26,Tabelle1!$M$29:$M$39,Tabelle1!$I$29:$I$39,Tabelle1!$I$6:$I$26</definedName>
+    <definedName name="Field_Type">Tabelle1!$AC$29:$AC$37,Tabelle1!$AC$6:$AC$23,Tabelle1!$AC$26,Tabelle1!$Y$6:$Y$26,Tabelle1!$Y$29:$Y$37,Tabelle1!$Q$29:$Q$37,Tabelle1!$Q$6:$Q$26,Tabelle1!$M$6:$M$26,Tabelle1!$M$29:$M$37,Tabelle1!$I$29:$I$37,Tabelle1!$I$6:$I$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="78">
   <si>
     <t>snapADDY</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Field Value</t>
   </si>
   <si>
-    <t>this is a note</t>
-  </si>
-  <si>
     <t>CRM System: SuiteCRM</t>
   </si>
   <si>
@@ -202,18 +199,6 @@
     <t>nicht benötigt</t>
   </si>
   <si>
-    <t>Kampagnen-ID</t>
-  </si>
-  <si>
-    <t>Vorlagen-ID</t>
-  </si>
-  <si>
-    <t>VR Titel</t>
-  </si>
-  <si>
-    <t>Vorlagen Titel</t>
-  </si>
-  <si>
     <t>Erstellt am (Datum)</t>
   </si>
   <si>
@@ -281,6 +266,9 @@
   </si>
   <si>
     <t>Lead Quelle</t>
+  </si>
+  <si>
+    <t>Notizen</t>
   </si>
 </sst>
 </file>
@@ -395,7 +383,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="76">
+  <borders count="72">
     <border>
       <left/>
       <right/>
@@ -766,56 +754,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1358,7 +1296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1443,40 +1381,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1487,51 +1446,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="26">
     <dxf>
       <font>
         <b val="0"/>
@@ -1716,8 +1644,8 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -1760,118 +1688,8 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
         <patternFill patternType="darkUp">
           <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -2039,7 +1857,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>4396</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2399,10 +2217,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
-  <dimension ref="A1:AC40"/>
+  <dimension ref="A1:AC38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2428,7 +2246,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2441,108 +2259,110 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="E3" s="5"/>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="62" t="s">
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="O3" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="O3" s="62" t="s">
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="S3" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="W3" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="S3" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="W3" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="90"/>
-      <c r="AA3" s="88" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB3" s="89"/>
-      <c r="AC3" s="90"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="83"/>
+      <c r="AA3" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB3" s="82"/>
+      <c r="AC3" s="83"/>
     </row>
     <row r="4" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="66" t="s">
+      <c r="I5" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="63"/>
-      <c r="K5" s="64" t="s">
+      <c r="J5" s="52"/>
+      <c r="K5" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="65" t="s">
+      <c r="L5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="66" t="s">
+      <c r="M5" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="64" t="s">
+      <c r="O5" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="65" t="s">
+      <c r="P5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="66" t="s">
+      <c r="Q5" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="S5" s="64" t="s">
+      <c r="S5" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="T5" s="65" t="s">
+      <c r="T5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="U5" s="66" t="s">
+      <c r="U5" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="W5" s="78" t="s">
+      <c r="W5" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="X5" s="79" t="s">
+      <c r="X5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="Y5" s="80" t="s">
+      <c r="Y5" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="AA5" s="78" t="s">
+      <c r="AA5" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="AB5" s="79" t="s">
+      <c r="AB5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="AC5" s="80" t="s">
+      <c r="AC5" s="69" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2552,612 +2372,610 @@
       <c r="C6" s="12"/>
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
-      <c r="G6" s="67"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="68"/>
-      <c r="K6" s="67"/>
+      <c r="I6" s="57"/>
+      <c r="K6" s="56"/>
       <c r="L6" s="15"/>
-      <c r="M6" s="68"/>
-      <c r="O6" s="67"/>
+      <c r="M6" s="57"/>
+      <c r="O6" s="56"/>
       <c r="P6" s="15"/>
-      <c r="Q6" s="68"/>
-      <c r="S6" s="67"/>
+      <c r="Q6" s="57"/>
+      <c r="S6" s="56"/>
       <c r="T6" s="15"/>
-      <c r="U6" s="68"/>
-      <c r="W6" s="81" t="s">
+      <c r="U6" s="57"/>
+      <c r="W6" s="70" t="s">
         <v>6</v>
       </c>
       <c r="X6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="Y6" s="82"/>
-      <c r="AA6" s="81"/>
+      <c r="Y6" s="71"/>
+      <c r="AA6" s="70"/>
       <c r="AB6" s="26"/>
-      <c r="AC6" s="82"/>
+      <c r="AC6" s="71"/>
     </row>
     <row r="7" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>19</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B7" s="17"/>
       <c r="C7" s="18"/>
       <c r="D7" s="19"/>
       <c r="E7" s="20"/>
-      <c r="G7" s="69" t="s">
-        <v>63</v>
+      <c r="G7" s="58" t="s">
+        <v>58</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" s="69" t="s">
-        <v>63</v>
+        <v>24</v>
+      </c>
+      <c r="I7" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="58" t="s">
+        <v>58</v>
       </c>
       <c r="L7" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="O7" s="69"/>
+        <v>24</v>
+      </c>
+      <c r="M7" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="58"/>
       <c r="P7" s="26"/>
-      <c r="Q7" s="70"/>
-      <c r="S7" s="69" t="s">
-        <v>63</v>
+      <c r="Q7" s="59"/>
+      <c r="S7" s="58" t="s">
+        <v>58</v>
       </c>
       <c r="T7" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="U7" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="W7" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="U7" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="W7" s="70" t="s">
         <v>8</v>
       </c>
       <c r="X7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="Y7" s="82"/>
+      <c r="Y7" s="71"/>
       <c r="Z7"/>
-      <c r="AA7" s="81"/>
+      <c r="AA7" s="70"/>
       <c r="AB7" s="26"/>
-      <c r="AC7" s="82"/>
+      <c r="AC7" s="71"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
       <c r="E8" s="25"/>
-      <c r="G8" s="69" t="s">
-        <v>64</v>
+      <c r="G8" s="58" t="s">
+        <v>59</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="69" t="s">
-        <v>64</v>
+        <v>25</v>
+      </c>
+      <c r="I8" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="58" t="s">
+        <v>59</v>
       </c>
       <c r="L8" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="O8" s="69"/>
+        <v>25</v>
+      </c>
+      <c r="M8" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" s="58"/>
       <c r="P8" s="26"/>
-      <c r="Q8" s="70"/>
-      <c r="S8" s="69" t="s">
-        <v>64</v>
+      <c r="Q8" s="59"/>
+      <c r="S8" s="58" t="s">
+        <v>59</v>
       </c>
       <c r="T8" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="U8" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="W8" s="81"/>
+        <v>25</v>
+      </c>
+      <c r="U8" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="W8" s="70"/>
       <c r="X8" s="26"/>
-      <c r="Y8" s="82"/>
-      <c r="AA8" s="81"/>
+      <c r="Y8" s="71"/>
+      <c r="AA8" s="70"/>
       <c r="AB8" s="26"/>
-      <c r="AC8" s="82"/>
+      <c r="AC8" s="71"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
       <c r="E9" s="25"/>
-      <c r="G9" s="69" t="s">
-        <v>65</v>
+      <c r="G9" s="58" t="s">
+        <v>60</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="69" t="s">
-        <v>65</v>
+        <v>27</v>
+      </c>
+      <c r="I9" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="58" t="s">
+        <v>60</v>
       </c>
       <c r="L9" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" s="69"/>
+        <v>27</v>
+      </c>
+      <c r="M9" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" s="58"/>
       <c r="P9" s="26"/>
-      <c r="Q9" s="70"/>
-      <c r="S9" s="69" t="s">
-        <v>65</v>
+      <c r="Q9" s="59"/>
+      <c r="S9" s="58" t="s">
+        <v>60</v>
       </c>
       <c r="T9" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="U9" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="W9" s="81"/>
+        <v>27</v>
+      </c>
+      <c r="U9" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="W9" s="70"/>
       <c r="X9" s="26"/>
-      <c r="Y9" s="82"/>
-      <c r="AA9" s="81"/>
+      <c r="Y9" s="71"/>
+      <c r="AA9" s="70"/>
       <c r="AB9" s="26"/>
-      <c r="AC9" s="82"/>
+      <c r="AC9" s="71"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="23"/>
       <c r="D10" s="24"/>
       <c r="E10" s="25"/>
-      <c r="G10" s="69" t="s">
-        <v>79</v>
+      <c r="G10" s="58" t="s">
+        <v>74</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="69" t="s">
-        <v>79</v>
+        <v>28</v>
+      </c>
+      <c r="I10" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="58" t="s">
+        <v>74</v>
       </c>
       <c r="L10" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10" s="69"/>
+        <v>28</v>
+      </c>
+      <c r="M10" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" s="58"/>
       <c r="P10" s="26"/>
-      <c r="Q10" s="70"/>
-      <c r="S10" s="69" t="s">
-        <v>79</v>
+      <c r="Q10" s="59"/>
+      <c r="S10" s="58" t="s">
+        <v>74</v>
       </c>
       <c r="T10" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U10" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="W10" s="81"/>
+        <v>28</v>
+      </c>
+      <c r="U10" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="W10" s="70"/>
       <c r="X10" s="26"/>
-      <c r="Y10" s="82"/>
-      <c r="AA10" s="81"/>
+      <c r="Y10" s="71"/>
+      <c r="AA10" s="70"/>
       <c r="AB10" s="26"/>
-      <c r="AC10" s="82"/>
+      <c r="AC10" s="71"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="23"/>
       <c r="D11" s="24"/>
       <c r="E11" s="25"/>
-      <c r="G11" s="69" t="s">
+      <c r="G11" s="58" t="s">
         <v>10</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="58"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="57"/>
+      <c r="O11" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="K11" s="69"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="68"/>
-      <c r="O11" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q11" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="S11" s="69" t="s">
+      <c r="Q11" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="S11" s="58" t="s">
         <v>10</v>
       </c>
       <c r="T11" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="U11" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="W11" s="81"/>
+        <v>29</v>
+      </c>
+      <c r="U11" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="W11" s="70"/>
       <c r="X11" s="26"/>
-      <c r="Y11" s="82"/>
-      <c r="AA11" s="81"/>
+      <c r="Y11" s="71"/>
+      <c r="AA11" s="70"/>
       <c r="AB11" s="26"/>
-      <c r="AC11" s="82"/>
+      <c r="AC11" s="71"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="23"/>
       <c r="D12" s="24"/>
       <c r="E12" s="25"/>
-      <c r="G12" s="67" t="s">
-        <v>68</v>
+      <c r="G12" s="56" t="s">
+        <v>63</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="67" t="s">
-        <v>68</v>
+        <v>30</v>
+      </c>
+      <c r="I12" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="56" t="s">
+        <v>63</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="O12" s="67" t="s">
-        <v>68</v>
+        <v>30</v>
+      </c>
+      <c r="M12" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="56" t="s">
+        <v>63</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q12" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="S12" s="67" t="s">
-        <v>68</v>
+        <v>42</v>
+      </c>
+      <c r="Q12" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="S12" s="56" t="s">
+        <v>63</v>
       </c>
       <c r="T12" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="U12" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="W12" s="81"/>
+        <v>30</v>
+      </c>
+      <c r="U12" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="W12" s="70"/>
       <c r="X12" s="26"/>
-      <c r="Y12" s="82"/>
-      <c r="AA12" s="81"/>
+      <c r="Y12" s="71"/>
+      <c r="AA12" s="70"/>
       <c r="AB12" s="26"/>
-      <c r="AC12" s="82"/>
+      <c r="AC12" s="71"/>
     </row>
     <row r="13" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
-      <c r="G13" s="71" t="s">
-        <v>69</v>
+      <c r="G13" s="60" t="s">
+        <v>64</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13" s="71" t="s">
-        <v>69</v>
+        <v>32</v>
+      </c>
+      <c r="I13" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="60" t="s">
+        <v>64</v>
       </c>
       <c r="L13" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="O13" s="71" t="s">
-        <v>69</v>
+        <v>32</v>
+      </c>
+      <c r="M13" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" s="60" t="s">
+        <v>64</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q13" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="S13" s="71" t="s">
-        <v>69</v>
+        <v>43</v>
+      </c>
+      <c r="Q13" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="S13" s="60" t="s">
+        <v>64</v>
       </c>
       <c r="T13" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="U13" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="W13" s="81"/>
+        <v>32</v>
+      </c>
+      <c r="U13" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="W13" s="70"/>
       <c r="X13" s="26"/>
-      <c r="Y13" s="82"/>
+      <c r="Y13" s="71"/>
       <c r="Z13"/>
-      <c r="AA13" s="81"/>
+      <c r="AA13" s="70"/>
       <c r="AB13" s="26"/>
-      <c r="AC13" s="82"/>
+      <c r="AC13" s="71"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B14" s="32"/>
       <c r="C14" s="23"/>
       <c r="D14" s="24"/>
       <c r="E14" s="25"/>
-      <c r="G14" s="73" t="s">
-        <v>70</v>
+      <c r="G14" s="62" t="s">
+        <v>65</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="74" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14" s="73" t="s">
-        <v>70</v>
+        <v>30</v>
+      </c>
+      <c r="I14" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="62" t="s">
+        <v>65</v>
       </c>
       <c r="L14" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="O14" s="73" t="s">
-        <v>70</v>
+        <v>30</v>
+      </c>
+      <c r="M14" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" s="62" t="s">
+        <v>65</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q14" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="S14" s="73" t="s">
-        <v>70</v>
+        <v>44</v>
+      </c>
+      <c r="Q14" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="S14" s="62" t="s">
+        <v>65</v>
       </c>
       <c r="T14" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="U14" s="74" t="s">
-        <v>41</v>
-      </c>
-      <c r="W14" s="81"/>
+        <v>30</v>
+      </c>
+      <c r="U14" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="W14" s="70"/>
       <c r="X14" s="26"/>
-      <c r="Y14" s="82"/>
-      <c r="AA14" s="81"/>
+      <c r="Y14" s="71"/>
+      <c r="AA14" s="70"/>
       <c r="AB14" s="26"/>
-      <c r="AC14" s="82"/>
+      <c r="AC14" s="71"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="23"/>
       <c r="D15" s="24"/>
       <c r="E15" s="25"/>
-      <c r="G15" s="69" t="s">
-        <v>71</v>
+      <c r="G15" s="58" t="s">
+        <v>66</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" s="69" t="s">
-        <v>71</v>
+        <v>33</v>
+      </c>
+      <c r="I15" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="58" t="s">
+        <v>66</v>
       </c>
       <c r="L15" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="M15" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="O15" s="69" t="s">
-        <v>71</v>
+        <v>33</v>
+      </c>
+      <c r="M15" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" s="58" t="s">
+        <v>66</v>
       </c>
       <c r="P15" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q15" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="S15" s="69" t="s">
-        <v>71</v>
+        <v>45</v>
+      </c>
+      <c r="Q15" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="S15" s="58" t="s">
+        <v>66</v>
       </c>
       <c r="T15" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="U15" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="W15" s="81"/>
+        <v>33</v>
+      </c>
+      <c r="U15" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="W15" s="70"/>
       <c r="X15" s="26"/>
-      <c r="Y15" s="82"/>
-      <c r="AA15" s="81"/>
+      <c r="Y15" s="71"/>
+      <c r="AA15" s="70"/>
       <c r="AB15" s="26"/>
-      <c r="AC15" s="82"/>
+      <c r="AC15" s="71"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
       <c r="E16" s="25"/>
-      <c r="G16" s="69" t="s">
+      <c r="G16" s="58" t="s">
         <v>12</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="M16" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="O16" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="O16" s="58" t="s">
         <v>12</v>
       </c>
       <c r="P16" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q16" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="S16" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q16" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="S16" s="58" t="s">
         <v>12</v>
       </c>
       <c r="T16" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="U16" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="W16" s="81"/>
+        <v>31</v>
+      </c>
+      <c r="U16" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="W16" s="70"/>
       <c r="X16" s="26"/>
-      <c r="Y16" s="82"/>
-      <c r="AA16" s="81"/>
+      <c r="Y16" s="71"/>
+      <c r="AA16" s="70"/>
       <c r="AB16" s="26"/>
-      <c r="AC16" s="82"/>
+      <c r="AC16" s="71"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
       <c r="E17" s="25"/>
-      <c r="G17" s="69" t="s">
-        <v>73</v>
+      <c r="G17" s="58" t="s">
+        <v>68</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" s="69" t="s">
-        <v>73</v>
+        <v>34</v>
+      </c>
+      <c r="I17" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="58" t="s">
+        <v>68</v>
       </c>
       <c r="L17" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="M17" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="O17" s="69" t="s">
-        <v>73</v>
+        <v>34</v>
+      </c>
+      <c r="M17" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="O17" s="58" t="s">
+        <v>68</v>
       </c>
       <c r="P17" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q17" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="S17" s="69" t="s">
-        <v>73</v>
+        <v>47</v>
+      </c>
+      <c r="Q17" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="S17" s="58" t="s">
+        <v>68</v>
       </c>
       <c r="T17" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="U17" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="W17" s="81"/>
+        <v>34</v>
+      </c>
+      <c r="U17" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="W17" s="70"/>
       <c r="X17" s="26"/>
-      <c r="Y17" s="82"/>
-      <c r="AA17" s="81"/>
+      <c r="Y17" s="71"/>
+      <c r="AA17" s="70"/>
       <c r="AB17" s="26"/>
-      <c r="AC17" s="82"/>
+      <c r="AC17" s="71"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="23"/>
       <c r="D18" s="24"/>
       <c r="E18" s="25"/>
-      <c r="G18" s="69" t="s">
-        <v>74</v>
+      <c r="G18" s="58" t="s">
+        <v>69</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18" s="69" t="s">
-        <v>74</v>
+        <v>35</v>
+      </c>
+      <c r="I18" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="58" t="s">
+        <v>69</v>
       </c>
       <c r="L18" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="M18" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="O18" s="69"/>
+        <v>35</v>
+      </c>
+      <c r="M18" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="O18" s="58"/>
       <c r="P18" s="26"/>
-      <c r="Q18" s="70"/>
-      <c r="S18" s="69" t="s">
-        <v>74</v>
+      <c r="Q18" s="59"/>
+      <c r="S18" s="58" t="s">
+        <v>69</v>
       </c>
       <c r="T18" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="U18" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="W18" s="81"/>
+        <v>35</v>
+      </c>
+      <c r="U18" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="W18" s="70"/>
       <c r="X18" s="26"/>
-      <c r="Y18" s="82"/>
-      <c r="AA18" s="81"/>
+      <c r="Y18" s="71"/>
+      <c r="AA18" s="70"/>
       <c r="AB18" s="26"/>
-      <c r="AC18" s="82"/>
+      <c r="AC18" s="71"/>
     </row>
     <row r="19" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
@@ -3167,48 +2985,48 @@
       <c r="C19" s="18"/>
       <c r="D19" s="19"/>
       <c r="E19" s="20"/>
-      <c r="G19" s="71" t="s">
+      <c r="G19" s="60" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="60" t="s">
         <v>13</v>
       </c>
       <c r="L19" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="M19" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="O19" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="O19" s="60" t="s">
         <v>13</v>
       </c>
       <c r="P19" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q19" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="S19" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="S19" s="60" t="s">
         <v>13</v>
       </c>
       <c r="T19" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="U19" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="W19" s="81"/>
+        <v>36</v>
+      </c>
+      <c r="U19" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="W19" s="70"/>
       <c r="X19" s="26"/>
-      <c r="Y19" s="82"/>
-      <c r="AA19" s="81"/>
+      <c r="Y19" s="71"/>
+      <c r="AA19" s="70"/>
       <c r="AB19" s="26"/>
-      <c r="AC19" s="82"/>
+      <c r="AC19" s="71"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
@@ -3218,48 +3036,48 @@
       <c r="C20" s="23"/>
       <c r="D20" s="24"/>
       <c r="E20" s="25"/>
-      <c r="G20" s="69" t="s">
-        <v>78</v>
+      <c r="G20" s="58" t="s">
+        <v>73</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20" s="69" t="s">
-        <v>78</v>
+        <v>37</v>
+      </c>
+      <c r="I20" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="58" t="s">
+        <v>73</v>
       </c>
       <c r="L20" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="M20" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="O20" s="69" t="s">
-        <v>78</v>
+        <v>37</v>
+      </c>
+      <c r="M20" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="O20" s="58" t="s">
+        <v>73</v>
       </c>
       <c r="P20" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q20" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="S20" s="69" t="s">
-        <v>78</v>
+        <v>37</v>
+      </c>
+      <c r="Q20" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="S20" s="58" t="s">
+        <v>73</v>
       </c>
       <c r="T20" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="U20" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="W20" s="81"/>
+        <v>37</v>
+      </c>
+      <c r="U20" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="W20" s="70"/>
       <c r="X20" s="26"/>
-      <c r="Y20" s="82"/>
-      <c r="AA20" s="81"/>
+      <c r="Y20" s="71"/>
+      <c r="AA20" s="70"/>
       <c r="AB20" s="26"/>
-      <c r="AC20" s="82"/>
+      <c r="AC20" s="71"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
@@ -3269,48 +3087,48 @@
       <c r="C21" s="23"/>
       <c r="D21" s="24"/>
       <c r="E21" s="25"/>
-      <c r="G21" s="67" t="s">
+      <c r="G21" s="56" t="s">
         <v>15</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" s="56" t="s">
         <v>15</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="M21" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="O21" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="M21" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="O21" s="56" t="s">
         <v>15</v>
       </c>
       <c r="P21" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q21" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="S21" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q21" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="S21" s="56" t="s">
         <v>15</v>
       </c>
       <c r="T21" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="U21" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="W21" s="83"/>
+        <v>38</v>
+      </c>
+      <c r="U21" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="W21" s="72"/>
       <c r="X21" s="15"/>
-      <c r="Y21" s="84"/>
-      <c r="AA21" s="83"/>
+      <c r="Y21" s="73"/>
+      <c r="AA21" s="72"/>
       <c r="AB21" s="15"/>
-      <c r="AC21" s="84"/>
+      <c r="AC21" s="73"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
@@ -3320,135 +3138,135 @@
       <c r="C22" s="23"/>
       <c r="D22" s="24"/>
       <c r="E22" s="25"/>
-      <c r="G22" s="67" t="s">
+      <c r="G22" s="56" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22" s="67"/>
+        <v>39</v>
+      </c>
+      <c r="I22" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" s="56"/>
       <c r="L22" s="15"/>
-      <c r="M22" s="68"/>
-      <c r="O22" s="67"/>
+      <c r="M22" s="57"/>
+      <c r="O22" s="56"/>
       <c r="P22" s="15"/>
-      <c r="Q22" s="68"/>
-      <c r="S22" s="67"/>
+      <c r="Q22" s="57"/>
+      <c r="S22" s="56"/>
       <c r="T22" s="15"/>
-      <c r="U22" s="68"/>
-      <c r="W22" s="83"/>
+      <c r="U22" s="57"/>
+      <c r="W22" s="72"/>
       <c r="X22" s="15"/>
-      <c r="Y22" s="84"/>
-      <c r="AA22" s="83"/>
+      <c r="Y22" s="73"/>
+      <c r="AA22" s="72"/>
       <c r="AB22" s="15"/>
-      <c r="AC22" s="84"/>
+      <c r="AC22" s="73"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="33"/>
       <c r="D23" s="34"/>
       <c r="E23" s="35"/>
-      <c r="G23" s="67" t="s">
-        <v>81</v>
+      <c r="G23" s="56" t="s">
+        <v>76</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="K23" s="67" t="s">
-        <v>81</v>
+        <v>26</v>
+      </c>
+      <c r="I23" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="56" t="s">
+        <v>76</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="M23" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="O23" s="67"/>
+        <v>26</v>
+      </c>
+      <c r="M23" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="O23" s="56"/>
       <c r="P23" s="15"/>
-      <c r="Q23" s="68"/>
-      <c r="S23" s="67"/>
+      <c r="Q23" s="57"/>
+      <c r="S23" s="56"/>
       <c r="T23" s="15"/>
-      <c r="U23" s="68"/>
-      <c r="W23" s="83"/>
+      <c r="U23" s="57"/>
+      <c r="W23" s="72"/>
       <c r="X23" s="15"/>
-      <c r="Y23" s="84"/>
-      <c r="AA23" s="83"/>
+      <c r="Y23" s="73"/>
+      <c r="AA23" s="72"/>
       <c r="AB23" s="15"/>
-      <c r="AC23" s="84"/>
+      <c r="AC23" s="73"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B24" s="29"/>
       <c r="C24" s="33"/>
       <c r="D24" s="34"/>
       <c r="E24" s="35"/>
-      <c r="G24" s="67"/>
+      <c r="G24" s="56"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="68"/>
-      <c r="K24" s="67"/>
+      <c r="I24" s="57"/>
+      <c r="K24" s="56"/>
       <c r="L24" s="15"/>
-      <c r="M24" s="68"/>
-      <c r="O24" s="67" t="s">
-        <v>76</v>
+      <c r="M24" s="57"/>
+      <c r="O24" s="56" t="s">
+        <v>71</v>
       </c>
       <c r="P24" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q24" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="S24" s="67"/>
+        <v>48</v>
+      </c>
+      <c r="Q24" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="S24" s="56"/>
       <c r="T24" s="15"/>
-      <c r="U24" s="68"/>
-      <c r="W24" s="83"/>
+      <c r="U24" s="57"/>
+      <c r="W24" s="72"/>
       <c r="X24" s="15"/>
-      <c r="Y24" s="84"/>
-      <c r="AA24" s="83"/>
+      <c r="Y24" s="73"/>
+      <c r="AA24" s="72"/>
       <c r="AB24" s="15"/>
-      <c r="AC24" s="84"/>
+      <c r="AC24" s="73"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B25" s="29"/>
       <c r="C25" s="33"/>
       <c r="D25" s="34"/>
       <c r="E25" s="35"/>
-      <c r="G25" s="67"/>
+      <c r="G25" s="56"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="68"/>
-      <c r="K25" s="67"/>
+      <c r="I25" s="57"/>
+      <c r="K25" s="56"/>
       <c r="L25" s="15"/>
-      <c r="M25" s="68"/>
-      <c r="O25" s="67" t="s">
-        <v>77</v>
+      <c r="M25" s="57"/>
+      <c r="O25" s="56" t="s">
+        <v>72</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q25" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="S25" s="67"/>
+        <v>49</v>
+      </c>
+      <c r="Q25" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="S25" s="56"/>
       <c r="T25" s="15"/>
-      <c r="U25" s="68"/>
-      <c r="W25" s="83"/>
+      <c r="U25" s="57"/>
+      <c r="W25" s="72"/>
       <c r="X25" s="15"/>
-      <c r="Y25" s="84"/>
-      <c r="AA25" s="83"/>
+      <c r="Y25" s="73"/>
+      <c r="AA25" s="72"/>
       <c r="AB25" s="15"/>
-      <c r="AC25" s="84"/>
+      <c r="AC25" s="73"/>
     </row>
     <row r="26" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="36"/>
@@ -3456,24 +3274,24 @@
       <c r="C26" s="38"/>
       <c r="D26" s="39"/>
       <c r="E26" s="40"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="77"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="77"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="77"/>
-      <c r="S26" s="75"/>
-      <c r="T26" s="76"/>
-      <c r="U26" s="77"/>
-      <c r="W26" s="85"/>
-      <c r="X26" s="86"/>
-      <c r="Y26" s="87"/>
-      <c r="AA26" s="85"/>
-      <c r="AB26" s="86"/>
-      <c r="AC26" s="87"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="66"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="66"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="65"/>
+      <c r="Q26" s="66"/>
+      <c r="S26" s="64"/>
+      <c r="T26" s="65"/>
+      <c r="U26" s="66"/>
+      <c r="W26" s="74"/>
+      <c r="X26" s="75"/>
+      <c r="Y26" s="76"/>
+      <c r="AA26" s="74"/>
+      <c r="AB26" s="75"/>
+      <c r="AC26" s="76"/>
     </row>
     <row r="27" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G27" s="41"/>
@@ -3490,7 +3308,7 @@
       <c r="AC27" s="42"/>
     </row>
     <row r="28" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="50" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="43" t="s">
@@ -3501,370 +3319,310 @@
       <c r="E28" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="G28" s="64" t="s">
+      <c r="G28" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="65" t="s">
+      <c r="H28" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="I28" s="66" t="s">
+      <c r="I28" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="K28" s="64" t="s">
+      <c r="K28" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="L28" s="65" t="s">
+      <c r="L28" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="M28" s="66" t="s">
+      <c r="M28" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="O28" s="64" t="s">
+      <c r="O28" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="P28" s="65" t="s">
+      <c r="P28" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="Q28" s="66" t="s">
+      <c r="Q28" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="S28" s="64" t="s">
+      <c r="S28" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="T28" s="65" t="s">
+      <c r="T28" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="U28" s="66" t="s">
+      <c r="U28" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="W28" s="91" t="s">
+      <c r="W28" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="X28" s="92" t="s">
+      <c r="X28" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="Y28" s="93" t="s">
+      <c r="Y28" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="AA28" s="91" t="s">
+      <c r="AA28" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="AB28" s="92" t="s">
+      <c r="AB28" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="AC28" s="93" t="s">
+      <c r="AC28" s="79" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="49"/>
-      <c r="G29" s="69"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="48"/>
+      <c r="G29" s="58"/>
       <c r="H29" s="26"/>
-      <c r="I29" s="70"/>
-      <c r="K29" s="69"/>
+      <c r="I29" s="59"/>
+      <c r="K29" s="58"/>
       <c r="L29" s="26"/>
-      <c r="M29" s="70"/>
-      <c r="O29" s="69"/>
+      <c r="M29" s="59"/>
+      <c r="O29" s="58"/>
       <c r="P29" s="26"/>
-      <c r="Q29" s="70"/>
-      <c r="S29" s="69"/>
+      <c r="Q29" s="59"/>
+      <c r="S29" s="58"/>
       <c r="T29" s="26"/>
-      <c r="U29" s="70"/>
-      <c r="W29" s="81"/>
+      <c r="U29" s="59"/>
+      <c r="W29" s="70"/>
       <c r="X29" s="26"/>
-      <c r="Y29" s="82"/>
-      <c r="AA29" s="81"/>
+      <c r="Y29" s="71"/>
+      <c r="AA29" s="70"/>
       <c r="AB29" s="26"/>
-      <c r="AC29" s="82"/>
+      <c r="AC29" s="71"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="49"/>
-      <c r="G30" s="69"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="48"/>
+      <c r="G30" s="58"/>
       <c r="H30" s="26"/>
-      <c r="I30" s="70"/>
-      <c r="K30" s="69"/>
+      <c r="I30" s="59"/>
+      <c r="K30" s="58"/>
       <c r="L30" s="26"/>
-      <c r="M30" s="70"/>
-      <c r="O30" s="69"/>
+      <c r="M30" s="59"/>
+      <c r="O30" s="58"/>
       <c r="P30" s="26"/>
-      <c r="Q30" s="70"/>
-      <c r="S30" s="69"/>
+      <c r="Q30" s="59"/>
+      <c r="S30" s="58"/>
       <c r="T30" s="26"/>
-      <c r="U30" s="70"/>
-      <c r="W30" s="81"/>
+      <c r="U30" s="59"/>
+      <c r="W30" s="70"/>
       <c r="X30" s="26"/>
-      <c r="Y30" s="82"/>
-      <c r="AA30" s="81"/>
+      <c r="Y30" s="71"/>
+      <c r="AA30" s="70"/>
       <c r="AB30" s="26"/>
-      <c r="AC30" s="82"/>
+      <c r="AC30" s="71"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="49"/>
-      <c r="G31" s="69"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="48"/>
+      <c r="G31" s="58"/>
       <c r="H31" s="26"/>
-      <c r="I31" s="70"/>
-      <c r="K31" s="69"/>
+      <c r="I31" s="59"/>
+      <c r="K31" s="58"/>
       <c r="L31" s="26"/>
-      <c r="M31" s="70"/>
-      <c r="O31" s="69"/>
+      <c r="M31" s="59"/>
+      <c r="O31" s="58"/>
       <c r="P31" s="26"/>
-      <c r="Q31" s="70"/>
-      <c r="S31" s="69"/>
+      <c r="Q31" s="59"/>
+      <c r="S31" s="58"/>
       <c r="T31" s="26"/>
-      <c r="U31" s="70"/>
-      <c r="W31" s="81"/>
+      <c r="U31" s="59"/>
+      <c r="W31" s="70"/>
       <c r="X31" s="26"/>
-      <c r="Y31" s="82"/>
-      <c r="AA31" s="81"/>
+      <c r="Y31" s="71"/>
+      <c r="AA31" s="70"/>
       <c r="AB31" s="26"/>
-      <c r="AC31" s="82"/>
+      <c r="AC31" s="71"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="54"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="49"/>
-      <c r="G32" s="69"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="45"/>
+      <c r="G32" s="58"/>
       <c r="H32" s="26"/>
-      <c r="I32" s="70"/>
-      <c r="K32" s="69"/>
+      <c r="I32" s="59"/>
+      <c r="K32" s="58"/>
       <c r="L32" s="26"/>
-      <c r="M32" s="70"/>
-      <c r="O32" s="69"/>
+      <c r="M32" s="59"/>
+      <c r="O32" s="58"/>
       <c r="P32" s="26"/>
-      <c r="Q32" s="70"/>
-      <c r="S32" s="69"/>
+      <c r="Q32" s="59"/>
+      <c r="S32" s="58"/>
       <c r="T32" s="26"/>
-      <c r="U32" s="70"/>
-      <c r="W32" s="81"/>
+      <c r="U32" s="59"/>
+      <c r="W32" s="70"/>
       <c r="X32" s="26"/>
-      <c r="Y32" s="82"/>
-      <c r="AA32" s="81"/>
+      <c r="Y32" s="71"/>
+      <c r="AA32" s="70"/>
       <c r="AB32" s="26"/>
-      <c r="AC32" s="82"/>
+      <c r="AC32" s="71"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="49"/>
-      <c r="G33" s="69"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="45"/>
+      <c r="G33" s="58"/>
       <c r="H33" s="26"/>
-      <c r="I33" s="70"/>
-      <c r="K33" s="69"/>
+      <c r="I33" s="59"/>
+      <c r="K33" s="58"/>
       <c r="L33" s="26"/>
-      <c r="M33" s="70"/>
-      <c r="O33" s="69"/>
+      <c r="M33" s="59"/>
+      <c r="O33" s="58"/>
       <c r="P33" s="26"/>
-      <c r="Q33" s="70"/>
-      <c r="S33" s="69"/>
+      <c r="Q33" s="59"/>
+      <c r="S33" s="58"/>
       <c r="T33" s="26"/>
-      <c r="U33" s="70"/>
-      <c r="W33" s="81"/>
+      <c r="U33" s="59"/>
+      <c r="W33" s="70"/>
       <c r="X33" s="26"/>
-      <c r="Y33" s="82"/>
-      <c r="AA33" s="81"/>
+      <c r="Y33" s="71"/>
+      <c r="AA33" s="70"/>
       <c r="AB33" s="26"/>
-      <c r="AC33" s="82"/>
+      <c r="AC33" s="71"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="44"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="55"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="86"/>
       <c r="E34" s="45"/>
-      <c r="G34" s="69"/>
+      <c r="G34" s="58"/>
       <c r="H34" s="26"/>
-      <c r="I34" s="70"/>
-      <c r="K34" s="69"/>
+      <c r="I34" s="59"/>
+      <c r="K34" s="58"/>
       <c r="L34" s="26"/>
-      <c r="M34" s="70"/>
-      <c r="O34" s="69"/>
+      <c r="M34" s="59"/>
+      <c r="O34" s="58"/>
       <c r="P34" s="26"/>
-      <c r="Q34" s="70"/>
-      <c r="S34" s="69"/>
+      <c r="Q34" s="59"/>
+      <c r="S34" s="58"/>
       <c r="T34" s="26"/>
-      <c r="U34" s="70"/>
-      <c r="W34" s="81"/>
+      <c r="U34" s="59"/>
+      <c r="W34" s="70"/>
       <c r="X34" s="26"/>
-      <c r="Y34" s="82"/>
-      <c r="AA34" s="81"/>
+      <c r="Y34" s="71"/>
+      <c r="AA34" s="70"/>
       <c r="AB34" s="26"/>
-      <c r="AC34" s="82"/>
+      <c r="AC34" s="71"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="44"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="55"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="86"/>
       <c r="E35" s="45"/>
-      <c r="G35" s="69"/>
+      <c r="G35" s="58"/>
       <c r="H35" s="26"/>
-      <c r="I35" s="70"/>
-      <c r="K35" s="69"/>
+      <c r="I35" s="59"/>
+      <c r="K35" s="58"/>
       <c r="L35" s="26"/>
-      <c r="M35" s="70"/>
-      <c r="O35" s="69"/>
+      <c r="M35" s="59"/>
+      <c r="O35" s="58"/>
       <c r="P35" s="26"/>
-      <c r="Q35" s="70"/>
-      <c r="S35" s="69"/>
+      <c r="Q35" s="59"/>
+      <c r="S35" s="58"/>
       <c r="T35" s="26"/>
-      <c r="U35" s="70"/>
-      <c r="W35" s="81"/>
+      <c r="U35" s="59"/>
+      <c r="W35" s="70"/>
       <c r="X35" s="26"/>
-      <c r="Y35" s="82"/>
-      <c r="AA35" s="81"/>
+      <c r="Y35" s="71"/>
+      <c r="AA35" s="70"/>
       <c r="AB35" s="26"/>
-      <c r="AC35" s="82"/>
+      <c r="AC35" s="71"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="55"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="86"/>
       <c r="E36" s="45"/>
-      <c r="G36" s="69"/>
+      <c r="G36" s="58"/>
       <c r="H36" s="26"/>
-      <c r="I36" s="70"/>
-      <c r="K36" s="69"/>
+      <c r="I36" s="59"/>
+      <c r="K36" s="58"/>
       <c r="L36" s="26"/>
-      <c r="M36" s="70"/>
-      <c r="O36" s="69"/>
+      <c r="M36" s="59"/>
+      <c r="O36" s="58"/>
       <c r="P36" s="26"/>
-      <c r="Q36" s="70"/>
-      <c r="S36" s="69"/>
+      <c r="Q36" s="59"/>
+      <c r="S36" s="58"/>
       <c r="T36" s="26"/>
-      <c r="U36" s="70"/>
-      <c r="W36" s="81"/>
+      <c r="U36" s="59"/>
+      <c r="W36" s="70"/>
       <c r="X36" s="26"/>
-      <c r="Y36" s="82"/>
-      <c r="AA36" s="81"/>
+      <c r="Y36" s="71"/>
+      <c r="AA36" s="70"/>
       <c r="AB36" s="26"/>
-      <c r="AC36" s="82"/>
+      <c r="AC36" s="71"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="45"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="70"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="70"/>
-      <c r="O37" s="69"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="70"/>
-      <c r="S37" s="69"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="70"/>
-      <c r="W37" s="81"/>
-      <c r="X37" s="26"/>
-      <c r="Y37" s="82"/>
-      <c r="AA37" s="81"/>
-      <c r="AB37" s="26"/>
-      <c r="AC37" s="82"/>
+    <row r="37" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="46"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="47"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="66"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="66"/>
+      <c r="O37" s="64"/>
+      <c r="P37" s="65"/>
+      <c r="Q37" s="66"/>
+      <c r="S37" s="64"/>
+      <c r="T37" s="65"/>
+      <c r="U37" s="66"/>
+      <c r="W37" s="74"/>
+      <c r="X37" s="75"/>
+      <c r="Y37" s="76"/>
+      <c r="AA37" s="74"/>
+      <c r="AB37" s="75"/>
+      <c r="AC37" s="76"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="45"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="70"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="70"/>
-      <c r="O38" s="69"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="70"/>
-      <c r="S38" s="69"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="70"/>
-      <c r="W38" s="81"/>
-      <c r="X38" s="26"/>
-      <c r="Y38" s="82"/>
-      <c r="AA38" s="81"/>
-      <c r="AB38" s="26"/>
-      <c r="AC38" s="82"/>
-    </row>
-    <row r="39" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="46"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="47"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="77"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="77"/>
-      <c r="O39" s="75"/>
-      <c r="P39" s="76"/>
-      <c r="Q39" s="77"/>
-      <c r="S39" s="75"/>
-      <c r="T39" s="76"/>
-      <c r="U39" s="77"/>
-      <c r="W39" s="85"/>
-      <c r="X39" s="86"/>
-      <c r="Y39" s="87"/>
-      <c r="AA39" s="85"/>
-      <c r="AB39" s="86"/>
-      <c r="AC39" s="87"/>
-    </row>
-    <row r="40" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="W19:AC19 W6:AB18 W20:AB26 A6:V26" name="Contact Fields"/>
-    <protectedRange sqref="A29:AC39" name="Questionnaire"/>
+    <protectedRange sqref="A29:AC37" name="Questionnaire"/>
   </protectedRanges>
-  <mergeCells count="17">
+  <mergeCells count="15">
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B33:D33"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B34:D34"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="O3:Q3"/>
@@ -3873,83 +3631,43 @@
     <mergeCell ref="S3:U3"/>
   </mergeCells>
   <conditionalFormatting sqref="A26:R27 W7:AK27 B7:R25">
-    <cfRule type="expression" dxfId="35" priority="39">
+    <cfRule type="expression" dxfId="25" priority="39">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="40">
+    <cfRule type="expression" dxfId="24" priority="40">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA29:AC39">
-    <cfRule type="expression" dxfId="33" priority="37">
+  <conditionalFormatting sqref="AA29:AC37 W29:Y37 O29:Q37 K29:M37 G29:I37 S29:U37">
+    <cfRule type="expression" dxfId="23" priority="37">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="38">
-      <formula>$D29="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W29:Y39">
-    <cfRule type="expression" dxfId="31" priority="35">
-      <formula>$C29="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="36">
-      <formula>$D29="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O29:Q39">
-    <cfRule type="expression" dxfId="29" priority="33">
-      <formula>$C29="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="34">
-      <formula>$D29="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K29:M39">
-    <cfRule type="expression" dxfId="27" priority="31">
-      <formula>$C29="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="32">
-      <formula>$D29="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29:I39">
-    <cfRule type="expression" dxfId="25" priority="29">
-      <formula>$C29="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="30">
+    <cfRule type="expression" dxfId="22" priority="38">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A25">
-    <cfRule type="expression" dxfId="23" priority="27">
+    <cfRule type="expression" dxfId="21" priority="27">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="28">
+    <cfRule type="expression" dxfId="20" priority="28">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W6:AC6">
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22">
+    <cfRule type="expression" dxfId="18" priority="22">
       <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S22:V27 V7:V21">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="17" priority="19">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
+    <cfRule type="expression" dxfId="16" priority="20">
       <formula>$D7="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S29:U39">
-    <cfRule type="expression" dxfId="17" priority="17">
-      <formula>$C29="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
-      <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:U7">
@@ -4020,7 +3738,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D26" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC6:AC26 AC29:AC39 Y29:Y39 Y6:Y26 U6:U26 U29:U39 Q29:Q39 Q6:Q26 M6:M26 M29:M39 I29:I39 I6:I26" xr:uid="{875B8462-1178-4F45-9F17-2CD3ACFAE181}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC6:AC26 Y6:Y26 U6:U26 Q6:Q26 M6:M26 I6:I26 AC29:AC37 Y29:Y37 U29:U37 Q29:Q37 M29:M37 I29:I37" xr:uid="{875B8462-1178-4F45-9F17-2CD3ACFAE181}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
